--- a/기획+QA.xlsx
+++ b/기획+QA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\little Hong\source\repos\PrimerPasoRPG\PrimerPasoRPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B95B7B-99EA-4B46-BE08-EFC3A88C566A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF26D88-97C2-4870-A6C5-65BBC0A4BBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기획_직업" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="기획_아이템" sheetId="7" r:id="rId4"/>
     <sheet name="QA_기본기능" sheetId="5" r:id="rId5"/>
     <sheet name="QA_버그" sheetId="4" r:id="rId6"/>
-    <sheet name="기타)드롭다운목록" sheetId="9" r:id="rId7"/>
+    <sheet name="QA_개발" sheetId="10" r:id="rId7"/>
+    <sheet name="기타)드롭다운목록" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">QA_기본기능!$J$3:$J$30</definedName>
@@ -40,15 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="93">
-  <si>
-    <t>1. 몬스터 전투력 기준은, 최소 전투력을 충족했을 때 4~5번 공격하면 잡을 수 있게끔 데이터를 설정한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2. 던전에서 선택할 수 있는 옵션은 총 5가지가 된다.   </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="178">
   <si>
     <t>공격하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3. 직업 별 능력치는 컨셉에 맞게 상이하게 설정할 예정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전사 - 체력 우위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,57 +75,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소 전투력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 전투력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵</t>
+  </si>
+  <si>
     <t>난이도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>몬스터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최소 공격력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 공격력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">회피 확률 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최소 전투력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 전투력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">쉬움 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맵</t>
-  </si>
-  <si>
-    <t>난이도</t>
-  </si>
-  <si>
-    <t>몬스터</t>
   </si>
   <si>
     <t>입장 시 필요 전투력</t>
@@ -194,10 +167,6 @@
     <t>마법사</t>
   </si>
   <si>
-    <t>버그 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>버그 요약</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,30 +183,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수정 결과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>카테고리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>폭탄 설치 범위 내에 시작점이 있을 경우 폭탄 설치 시 별 사라지는 문제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출발점에서 출발 후 노출되는 별 모양 위치에서 폭탄을 설치한 후 폭탄을 터뜨릴 시 출발지 별이 사라지는 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 별 출발 -&gt; 출발지 별 위치에 폭탄 설치 -&gt; 폭탄 폭발 -&gt; 별 사라짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭탄을 터뜨려도 별이 사라지지 않아야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -362,10 +311,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>예시) 미로 - 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Easy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -387,6 +332,395 @@
   </si>
   <si>
     <t>Hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 정보 메뉴 입력 시 캐릭터 정보가 출력되지 않는 문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 메뉴에서 캐릭터 정보 메뉴(4번 메뉴) 선택 시 메뉴에 진입하지 않는 문제 (캐릭터 정보 출력X)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 게임 실행 후 게임 모드 선택
+2. 플레이어 닉네임 입력
+3. 직업 아무거나 선택
+4. 캐릭터 정보 메뉴 입력 (4번 메뉴 입력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 정보 메뉴 입력 시 캐릭터 정보가 노출돼야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>툴</t>
+  </si>
+  <si>
+    <t>툴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 버전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시) Version.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기대 결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새 게임으로 시작할 시 몬스터, 아이템의 기본 정보로 게임할 수 있도록 하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임툴 메뉴 - 몬스터 설정에서 몬스터 수정 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임툴 메뉴 - 아이템 설정에서 아이템 수정 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임툴 메뉴 - 몬스터 설정에서 몬스터 삭제 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임툴 메뉴 - 아이템 설정에서 아이템 삭제 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임툴 - 몬스터 메뉴, 아이템 메뉴에서 저장, 불러오기 성공 시 출력되는 문구 통일화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 메뉴 - 캐릭터 정보 메뉴 입력 시 캐릭터 정보 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 모드 입장 시, 새 게임 / 불러오기 메뉴 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발자 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 메뉴에 게임 정보 메뉴 추가 및 게임 정보 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
+  </si>
+  <si>
+    <t>무기 강화 시스템 기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리</t>
+  </si>
+  <si>
+    <t>직업별 기본 크리티컬 추가 - 기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직업별 기본 크리티컬 추가 - 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 착용 해제 기능 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직업 1개 추가 - 기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직업 1개 추가 - 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임툴 메뉴 -&gt; 초기 화면으로 이동이므로 게임툴 메뉴에서 나갈 때 '뒤로가기'로 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성 버전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴만 구현되어있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재는 다른 아이템으로 바꿔 착용만 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재는 아이템 장착 시에만 크리티컬이 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직업 3개(기사, 궁수, 마법사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 '종료'로 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 메뉴에서 종료 시 확인 문구 한 번 더 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 종료하시겠습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 강화 시스템 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재미 요소 추가가 필요할 것 같음 ㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 아이템 추가 - 기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권 아이템 상점에 추가 - 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재는 마나 소모 X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 시 마나 사용 구현 - 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 시 마나 사용 - 기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직업별 밸런스 조정 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터별, 단계별 밸런스 조정 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 저장 파일에 몬스터 정보 맵 난이도별 2개씩 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가할 몬스터 정보 기획 (난이도별 1개씩)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앞으로 업데이트할 내용 작성 (기획+개발)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중요도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 전투 불가 상태 / 입력만 하면 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임과 게임툴 분리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름 입력, 직업 선택 같이 하도록 수정 (같은 화면에서)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재는 이름 입력 후 직업 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵(전투)</t>
+  </si>
+  <si>
+    <t>맵(전투)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 화면 UI 개선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름 입력, 직업 선택 화면 UI 개선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어, 몬스터 정보 외 다른 문구 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소 방어력, 최대 방어력 삭제 후 방어력 하나로 통일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소 방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처치 시 획득 경험치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투력 기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계산 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵별 입장 제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심기 불편한 고양이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화난 곰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드래곤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기의 치명타 같은 느낌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어구별 기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 회피 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피 확률 추가 - 기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피 확률 추가 - 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기의 치명타보다는 낮은 확률로 회피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 기능 TC 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 기능 테스트를 위한 TC가 아닌 게임 사양을 알기 위한 TC로 생각하면 좋을 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 메뉴에서 종료 메뉴 선택 시 게임 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재는 초기 화면으로 돌아감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+  </si>
+  <si>
+    <t>코드 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요한 함수도 추가해 좀 더 가독성 있게 코드 정리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,7 +809,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -506,19 +840,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -651,11 +972,144 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -669,75 +1123,362 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF62A0D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF1D1D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF62A0D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF1D1D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF62A0D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF1D1D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -770,8 +1511,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF62A0D8"/>
       <color rgb="FFFF1D1D"/>
-      <color rgb="FF62A0D8"/>
       <color rgb="FF007DDA"/>
       <color rgb="FF008DF6"/>
       <color rgb="FFFF4F4F"/>
@@ -1087,8 +1828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B481DD1C-D151-45F4-BE8D-C6D2A2BCEF98}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1099,120 +1840,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1">
-      <c r="A1" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="19" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="16">
+        <v>5</v>
+      </c>
+      <c r="C2" s="16">
+        <v>10</v>
+      </c>
+      <c r="D2" s="16">
         <v>15</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="19" t="s">
+      <c r="E2" s="16">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="22">
-        <v>5</v>
-      </c>
-      <c r="C2" s="22">
-        <v>10</v>
-      </c>
-      <c r="D2" s="22">
-        <v>15</v>
-      </c>
-      <c r="E2" s="22">
-        <v>20</v>
-      </c>
-      <c r="F2" s="22">
+      <c r="F2" s="16">
         <v>500</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="16">
         <v>100</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22">
+      <c r="H2" s="79"/>
+      <c r="I2" s="79">
         <f>SUM(B2,E2:F2)/2</f>
         <v>262.5</v>
       </c>
-      <c r="J2" s="22">
+      <c r="J2" s="79">
         <f>SUM(C2:F2)/2</f>
         <v>272.5</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="22">
+      <c r="A3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="16">
         <v>10</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="16">
         <v>15</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="16">
         <v>10</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="16">
         <v>15</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="16">
         <v>400</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="16">
         <v>200</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="22">
+      <c r="A4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="16">
         <v>15</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="16">
         <v>20</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="16">
         <v>5</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="16">
         <v>10</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="16">
         <v>300</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="16">
         <v>300</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1224,8 +1965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB345A4-A0F8-4050-8D1A-C9A53942955C}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1235,49 +1976,55 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="D1" s="74" t="s">
+        <v>18</v>
       </c>
       <c r="E1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="77"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="77"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="77"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1287,138 +2034,209 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5" style="1" customWidth="1"/>
-    <col min="7" max="34" width="25.59765625" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="10.8984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.59765625" style="1" customWidth="1"/>
+    <col min="3" max="9" width="14.8984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.8984375" style="1" customWidth="1"/>
+    <col min="11" max="12" width="14.8984375" style="1" customWidth="1"/>
+    <col min="13" max="35" width="25.59765625" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="E1" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="H1" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K1" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="L1" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="15">
+        <v>10</v>
+      </c>
+      <c r="D2" s="15">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
-      <c r="J2" s="1">
-        <f>SUM(D2,F2:G2)/2</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <f>SUM(E2:G2)/2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="J3" s="1">
-        <f>SUM(D3,F3:G3)/2</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <f>SUM(E3:G3)/2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
+      <c r="E2" s="15">
+        <v>3</v>
+      </c>
+      <c r="F2" s="15">
+        <v>5</v>
+      </c>
+      <c r="G2" s="15">
+        <v>100</v>
+      </c>
+      <c r="H2" s="15">
+        <v>10</v>
+      </c>
+      <c r="I2" s="73">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="74">
+        <f>SUM(C2,F2:G2)/2</f>
+        <v>57.5</v>
+      </c>
+      <c r="L2" s="74">
+        <f>SUM(D2:G2)/2</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="15">
+        <v>50</v>
+      </c>
+      <c r="D3" s="15">
+        <v>80</v>
+      </c>
+      <c r="E3" s="15">
+        <v>40</v>
+      </c>
+      <c r="F3" s="15">
+        <v>60</v>
+      </c>
+      <c r="G3" s="15">
+        <v>2000</v>
+      </c>
+      <c r="H3" s="15">
+        <v>300</v>
+      </c>
+      <c r="I3" s="73">
+        <v>5</v>
+      </c>
+      <c r="J3" s="5">
+        <v>7000</v>
+      </c>
+      <c r="K3" s="74">
+        <f>SUM(C3,F3:G3)/2</f>
+        <v>1055</v>
+      </c>
+      <c r="L3" s="74">
+        <f>SUM(D3:G3)/2</f>
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="15">
+        <v>150</v>
+      </c>
+      <c r="D4" s="15">
+        <v>250</v>
+      </c>
+      <c r="E4" s="15">
+        <v>150</v>
+      </c>
+      <c r="F4" s="15">
+        <v>250</v>
+      </c>
+      <c r="G4" s="15">
+        <v>10000</v>
+      </c>
+      <c r="H4" s="15">
+        <v>10000</v>
+      </c>
+      <c r="I4" s="73">
+        <v>10</v>
+      </c>
+      <c r="J4" s="5">
+        <v>25000</v>
+      </c>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="K2" formulaRange="1"/>
+    <ignoredError sqref="L2" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1438,58 +2256,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>27</v>
+      <c r="A1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="22">
+      <c r="A2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="16">
         <v>5</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="16">
         <v>10</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="17">
         <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="22">
+      <c r="A3" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="16">
         <v>20</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="16">
         <v>30</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="17">
         <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="22">
+      <c r="A4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="16">
         <v>70</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="16">
         <v>100</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="17">
         <v>0.35</v>
       </c>
     </row>
@@ -1497,46 +2315,46 @@
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>33</v>
+      <c r="A6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="22">
+      <c r="A7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="16">
         <v>5</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="16">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="22">
+      <c r="A8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="16">
         <v>20</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="16">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="22">
+      <c r="A9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="16">
         <v>70</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="16">
         <v>100</v>
       </c>
     </row>
@@ -1551,802 +2369,808 @@
   <dimension ref="A1:M120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="2.296875" style="30" customWidth="1"/>
+    <col min="1" max="1" width="2.296875" style="21" customWidth="1"/>
     <col min="2" max="2" width="11.296875" style="5" customWidth="1"/>
     <col min="3" max="3" width="82.8984375" style="4" customWidth="1"/>
     <col min="4" max="5" width="18.5" style="4" customWidth="1"/>
     <col min="6" max="6" width="11" style="5" customWidth="1"/>
-    <col min="7" max="7" width="18.09765625" style="16" customWidth="1"/>
-    <col min="8" max="20" width="15.59765625" style="13" customWidth="1"/>
-    <col min="21" max="16384" width="8.796875" style="13"/>
+    <col min="7" max="7" width="30.69921875" style="40" customWidth="1"/>
+    <col min="8" max="8" width="15.59765625" style="11" customWidth="1"/>
+    <col min="9" max="20" width="15.59765625" style="9" customWidth="1"/>
+    <col min="21" max="16384" width="8.796875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.8" customHeight="1">
-      <c r="B1" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:13" ht="19.8" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:13" s="32" customFormat="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="35"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:13" s="23" customFormat="1">
+      <c r="A3" s="28"/>
+      <c r="B3" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:13">
       <c r="B4" s="5" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M4" s="33"/>
+        <v>46</v>
+      </c>
+      <c r="M4" s="24"/>
     </row>
     <row r="5" spans="1:13">
       <c r="D5" s="4" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M5" s="33"/>
+        <v>46</v>
+      </c>
+      <c r="M5" s="24"/>
     </row>
     <row r="6" spans="1:13">
       <c r="E6" s="4" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" s="33"/>
+        <v>46</v>
+      </c>
+      <c r="M6" s="24"/>
     </row>
     <row r="7" spans="1:13">
       <c r="E7" s="4" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M7" s="33"/>
+        <v>46</v>
+      </c>
+      <c r="M7" s="24"/>
     </row>
     <row r="8" spans="1:13">
       <c r="B8" s="5" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M8" s="33"/>
+        <v>46</v>
+      </c>
+      <c r="M8" s="24"/>
     </row>
     <row r="9" spans="1:13">
       <c r="D9" s="4" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" s="33"/>
+        <v>46</v>
+      </c>
+      <c r="M9" s="24"/>
     </row>
     <row r="10" spans="1:13">
       <c r="D10" s="4" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M10" s="33"/>
+        <v>46</v>
+      </c>
+      <c r="M10" s="24"/>
     </row>
     <row r="11" spans="1:13">
       <c r="D11" s="4" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M11" s="33"/>
+        <v>46</v>
+      </c>
+      <c r="M11" s="24"/>
     </row>
     <row r="12" spans="1:13">
       <c r="D12" s="4" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M12" s="33"/>
+        <v>46</v>
+      </c>
+      <c r="M12" s="24"/>
     </row>
     <row r="13" spans="1:13">
       <c r="B13" s="5" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M13" s="33"/>
+        <v>46</v>
+      </c>
+      <c r="M13" s="24"/>
     </row>
     <row r="14" spans="1:13">
       <c r="D14" s="4" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M14" s="33"/>
+        <v>46</v>
+      </c>
+      <c r="M14" s="24"/>
     </row>
     <row r="15" spans="1:13">
       <c r="D15" s="4" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M15" s="33"/>
+        <v>46</v>
+      </c>
+      <c r="M15" s="24"/>
     </row>
     <row r="16" spans="1:13">
       <c r="D16" s="4" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M16" s="33"/>
+        <v>46</v>
+      </c>
+      <c r="M16" s="24"/>
     </row>
     <row r="17" spans="2:13">
       <c r="D17" s="4" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M17" s="33"/>
+        <v>46</v>
+      </c>
+      <c r="M17" s="24"/>
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="5" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M18" s="33"/>
+        <v>46</v>
+      </c>
+      <c r="M18" s="24"/>
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="5" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M19" s="33"/>
+        <v>46</v>
+      </c>
+      <c r="M19" s="24"/>
     </row>
     <row r="20" spans="2:13">
       <c r="B20" s="5" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M20" s="33"/>
+        <v>46</v>
+      </c>
+      <c r="M20" s="24"/>
     </row>
     <row r="21" spans="2:13">
       <c r="F21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M21" s="33"/>
+        <v>46</v>
+      </c>
+      <c r="M21" s="24"/>
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M22" s="34"/>
+        <v>46</v>
+      </c>
+      <c r="M22" s="25"/>
     </row>
     <row r="23" spans="2:13">
       <c r="D23" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M23" s="34"/>
+        <v>46</v>
+      </c>
+      <c r="M23" s="25"/>
     </row>
     <row r="24" spans="2:13">
       <c r="D24" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M24" s="34"/>
+        <v>46</v>
+      </c>
+      <c r="M24" s="25"/>
     </row>
     <row r="25" spans="2:13">
       <c r="D25" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M25" s="34"/>
+        <v>46</v>
+      </c>
+      <c r="M25" s="25"/>
     </row>
     <row r="26" spans="2:13">
       <c r="D26" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M26" s="34"/>
+        <v>46</v>
+      </c>
+      <c r="M26" s="25"/>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M27" s="33"/>
+        <v>46</v>
+      </c>
+      <c r="M27" s="24"/>
     </row>
     <row r="28" spans="2:13">
       <c r="B28" s="5" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M28" s="34"/>
+        <v>46</v>
+      </c>
+      <c r="M28" s="25"/>
     </row>
     <row r="29" spans="2:13">
       <c r="D29" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M29" s="34"/>
+        <v>46</v>
+      </c>
+      <c r="M29" s="25"/>
     </row>
     <row r="30" spans="2:13">
       <c r="D30" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M30" s="34"/>
+        <v>46</v>
+      </c>
+      <c r="M30" s="25"/>
     </row>
     <row r="31" spans="2:13">
       <c r="F31" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M31" s="34"/>
+        <v>46</v>
+      </c>
+      <c r="M31" s="25"/>
     </row>
     <row r="32" spans="2:13">
       <c r="F32" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M32" s="34"/>
+        <v>46</v>
+      </c>
+      <c r="M32" s="25"/>
     </row>
     <row r="33" spans="6:6">
       <c r="F33" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="6:6">
       <c r="F34" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="6:6">
       <c r="F35" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="6:6">
       <c r="F36" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="6:6">
       <c r="F37" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="6:6">
       <c r="F38" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="6:6">
       <c r="F39" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="6:6">
       <c r="F40" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="6:6">
       <c r="F41" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="6:6">
       <c r="F42" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="6:6">
       <c r="F43" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="6:6">
       <c r="F44" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="6:6">
       <c r="F45" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="6:6">
       <c r="F46" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="6:6">
       <c r="F47" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="6:6">
       <c r="F48" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="6:6">
       <c r="F49" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="6:6">
       <c r="F50" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="6:6">
       <c r="F51" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="6:6">
       <c r="F52" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="6:6">
       <c r="F53" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="6:6">
       <c r="F54" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="6:6">
       <c r="F55" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="6:6">
       <c r="F56" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="6:6">
       <c r="F57" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="6:6">
       <c r="F58" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="6:6">
       <c r="F59" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="6:6">
       <c r="F60" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="6:6">
       <c r="F61" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="6:6">
       <c r="F62" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="6:6">
       <c r="F63" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="6:6">
       <c r="F64" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="6:6">
       <c r="F65" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="6:6">
       <c r="F66" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="6:6">
       <c r="F67" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="6:6">
       <c r="F68" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" spans="6:6">
       <c r="F69" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="6:6">
       <c r="F70" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="6:6">
       <c r="F71" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="6:6">
       <c r="F72" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="6:6">
       <c r="F73" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="6:6">
       <c r="F74" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" spans="6:6">
       <c r="F75" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="6:6">
       <c r="F76" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77" spans="6:6">
       <c r="F77" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="6:6">
       <c r="F78" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79" spans="6:6">
       <c r="F79" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80" spans="6:6">
       <c r="F80" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81" spans="6:6">
       <c r="F81" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82" spans="6:6">
       <c r="F82" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" spans="6:6">
       <c r="F83" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84" spans="6:6">
       <c r="F84" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85" spans="6:6">
       <c r="F85" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86" spans="6:6">
       <c r="F86" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87" spans="6:6">
       <c r="F87" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88" spans="6:6">
       <c r="F88" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89" spans="6:6">
       <c r="F89" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90" spans="6:6">
       <c r="F90" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91" spans="6:6">
       <c r="F91" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="92" spans="6:6">
       <c r="F92" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="93" spans="6:6">
       <c r="F93" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="94" spans="6:6">
       <c r="F94" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="95" spans="6:6">
       <c r="F95" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="96" spans="6:6">
       <c r="F96" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="97" spans="6:6">
       <c r="F97" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="98" spans="6:6">
       <c r="F98" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="99" spans="6:6">
       <c r="F99" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="100" spans="6:6">
       <c r="F100" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="101" spans="6:6">
       <c r="F101" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="102" spans="6:6">
       <c r="F102" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="103" spans="6:6">
       <c r="F103" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="104" spans="6:6">
       <c r="F104" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="105" spans="6:6">
       <c r="F105" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="106" spans="6:6">
       <c r="F106" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="107" spans="6:6">
       <c r="F107" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="108" spans="6:6">
       <c r="F108" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="109" spans="6:6">
       <c r="F109" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="110" spans="6:6">
       <c r="F110" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="111" spans="6:6">
       <c r="F111" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="112" spans="6:6">
       <c r="F112" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="113" spans="6:6">
       <c r="F113" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="114" spans="6:6">
       <c r="F114" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="115" spans="6:6">
       <c r="F115" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="116" spans="6:6">
       <c r="F116" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="117" spans="6:6">
       <c r="F117" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="118" spans="6:6">
       <c r="F118" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="119" spans="6:6">
       <c r="F119" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="120" spans="6:6">
       <c r="F120" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C3:D3"/>
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F3:F1048576">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="N/P">
+    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="N/P">
       <formula>NOT(ISERROR(SEARCH("N/P",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="24" priority="2" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2362,7 +3186,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{188B0A72-FB5C-4A62-B38F-0CA25B6C4E70}">
           <x14:formula1>
-            <xm:f>'기타)드롭다운목록'!$B$2:$B$8</xm:f>
+            <xm:f>'기타)드롭다운목록'!$B$2:$B$11</xm:f>
           </x14:formula1>
           <xm:sqref>B4:B1048576</xm:sqref>
         </x14:dataValidation>
@@ -2374,965 +3198,1168 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA945F70-6D3D-4B47-8D46-C14231EC5BF9}">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="17.09765625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="26" customWidth="1"/>
-    <col min="3" max="3" width="55.3984375" style="26" customWidth="1"/>
-    <col min="4" max="4" width="53.69921875" style="26" customWidth="1"/>
-    <col min="5" max="5" width="38.5" style="26" customWidth="1"/>
-    <col min="6" max="6" width="26.8984375" style="26" customWidth="1"/>
-    <col min="7" max="7" width="11.69921875" style="26" customWidth="1"/>
-    <col min="8" max="8" width="27" style="26" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="26"/>
+    <col min="1" max="1" width="15.5" style="19" customWidth="1"/>
+    <col min="2" max="2" width="10" style="19" customWidth="1"/>
+    <col min="3" max="3" width="36.296875" style="30" customWidth="1"/>
+    <col min="4" max="4" width="52.3984375" style="30" customWidth="1"/>
+    <col min="5" max="5" width="38.5" style="30" customWidth="1"/>
+    <col min="6" max="6" width="43.09765625" style="30" customWidth="1"/>
+    <col min="7" max="7" width="8.796875" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" spans="1:8" ht="34.799999999999997">
-      <c r="A2" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
+    <row r="1" spans="1:7" s="37" customFormat="1">
+      <c r="A1" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="69.599999999999994">
+      <c r="A2" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="29"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="29"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="29"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="29"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="29"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="29"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="29"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="29"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="29"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="29"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="29"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="29"/>
-      <c r="B64" s="29"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="29"/>
-      <c r="B65" s="29"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
+      <c r="A65" s="20"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="29"/>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
+      <c r="A66" s="20"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="29"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
+      <c r="A67" s="20"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="29"/>
-      <c r="B68" s="29"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="29"/>
+      <c r="A68" s="20"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="29"/>
-      <c r="B69" s="29"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
+      <c r="A69" s="20"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="29"/>
-      <c r="B70" s="29"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
+      <c r="A70" s="20"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="29"/>
-      <c r="B71" s="29"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
+      <c r="A71" s="20"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="29"/>
-      <c r="B72" s="29"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
+      <c r="A72" s="20"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="29"/>
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29"/>
+      <c r="A73" s="20"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="29"/>
-      <c r="B74" s="29"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="29"/>
+      <c r="A74" s="20"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="29"/>
-      <c r="B75" s="29"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="29"/>
-      <c r="G75" s="29"/>
+      <c r="A75" s="20"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="29"/>
-      <c r="B76" s="29"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="29"/>
+      <c r="A76" s="20"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="29"/>
-      <c r="B77" s="29"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="29"/>
+      <c r="A77" s="20"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="29"/>
-      <c r="B78" s="29"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
+      <c r="A78" s="20"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="29"/>
-      <c r="B79" s="29"/>
-      <c r="C79" s="29"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
+      <c r="A79" s="20"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="39"/>
+      <c r="G79" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="29"/>
-      <c r="B80" s="29"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
+      <c r="A80" s="20"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="29"/>
-      <c r="B81" s="29"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
+      <c r="A81" s="20"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="29"/>
-      <c r="B82" s="29"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
+      <c r="A82" s="20"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="29"/>
-      <c r="B83" s="29"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
+      <c r="A83" s="20"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="39"/>
+      <c r="G83" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="29"/>
-      <c r="B84" s="29"/>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="29"/>
-      <c r="G84" s="29"/>
+      <c r="A84" s="20"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="29"/>
-      <c r="B85" s="29"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="29"/>
+      <c r="A85" s="20"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="39"/>
+      <c r="G85" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="29"/>
-      <c r="B86" s="29"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="29"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="29"/>
+      <c r="A86" s="20"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="39"/>
+      <c r="G86" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="29"/>
-      <c r="B87" s="29"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="29"/>
+      <c r="A87" s="20"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="39"/>
+      <c r="G87" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="29"/>
-      <c r="B88" s="29"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="29"/>
-      <c r="E88" s="29"/>
-      <c r="F88" s="29"/>
-      <c r="G88" s="29"/>
+      <c r="A88" s="20"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="39"/>
+      <c r="G88" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="29"/>
-      <c r="B89" s="29"/>
-      <c r="C89" s="29"/>
-      <c r="D89" s="29"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="29"/>
+      <c r="A89" s="20"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="39"/>
+      <c r="G89" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="29"/>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="29"/>
+      <c r="A90" s="20"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="39"/>
+      <c r="G90" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="29"/>
-      <c r="B91" s="29"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="29"/>
-      <c r="G91" s="29"/>
+      <c r="A91" s="20"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="39"/>
+      <c r="G91" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="29"/>
-      <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="29"/>
+      <c r="A92" s="20"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="39"/>
+      <c r="G92" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="29"/>
-      <c r="B93" s="29"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="29"/>
+      <c r="A93" s="20"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="39"/>
+      <c r="G93" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="29"/>
-      <c r="B94" s="29"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="29"/>
-      <c r="G94" s="29"/>
+      <c r="A94" s="20"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="39"/>
+      <c r="G94" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="29"/>
-      <c r="B95" s="29"/>
-      <c r="C95" s="29"/>
-      <c r="D95" s="29"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="29"/>
-      <c r="G95" s="29"/>
+      <c r="A95" s="20"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="39"/>
+      <c r="G95" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="29"/>
-      <c r="B96" s="29"/>
-      <c r="C96" s="29"/>
-      <c r="D96" s="29"/>
-      <c r="E96" s="29"/>
-      <c r="F96" s="29"/>
-      <c r="G96" s="29"/>
+      <c r="A96" s="20"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="39"/>
+      <c r="G96" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="29"/>
-      <c r="B97" s="29"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="29"/>
+      <c r="A97" s="20"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="39"/>
+      <c r="G97" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="29"/>
-      <c r="B98" s="29"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="29"/>
+      <c r="A98" s="20"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="39"/>
+      <c r="G98" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="29"/>
-      <c r="B99" s="29"/>
-      <c r="C99" s="29"/>
-      <c r="D99" s="29"/>
-      <c r="E99" s="29"/>
-      <c r="F99" s="29"/>
-      <c r="G99" s="29"/>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="29"/>
-      <c r="B100" s="29"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="29"/>
-      <c r="E100" s="29"/>
-      <c r="F100" s="29"/>
-      <c r="G100" s="29"/>
+      <c r="A99" s="20"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="39"/>
+      <c r="G99" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G2:G99">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="N/P">
+      <formula>NOT(ISERROR(SEARCH("N/P",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",G2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4768E1A5-0466-4834-9629-4C5FE4F9564C}">
           <x14:formula1>
-            <xm:f>'기타)드롭다운목록'!$B$2:$B$8</xm:f>
+            <xm:f>'기타)드롭다운목록'!$B$2:$B$11</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B74801AC-C748-4BCF-A31D-20B6AFC980B3}">
+          <x14:formula1>
+            <xm:f>'기타)드롭다운목록'!$A$2:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G99</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3341,11 +4368,1382 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B03DAE-7C2C-40BD-A7FB-06E7A03B2CEF}">
+  <dimension ref="A1:M128"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="2.296875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="11.296875" style="43" customWidth="1"/>
+    <col min="3" max="3" width="7.19921875" style="43" customWidth="1"/>
+    <col min="4" max="4" width="63.8984375" style="62" customWidth="1"/>
+    <col min="5" max="5" width="21.69921875" style="62" customWidth="1"/>
+    <col min="6" max="6" width="9.69921875" style="43" customWidth="1"/>
+    <col min="7" max="7" width="37.69921875" style="83" customWidth="1"/>
+    <col min="8" max="8" width="13.3984375" style="40" customWidth="1"/>
+    <col min="9" max="9" width="15.59765625" style="60" customWidth="1"/>
+    <col min="10" max="20" width="15.59765625" style="42" customWidth="1"/>
+    <col min="21" max="16384" width="8.796875" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="19.8" customHeight="1">
+      <c r="B1" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="65"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="49"/>
+      <c r="I1" s="42"/>
+    </row>
+    <row r="2" spans="1:13" ht="19.8" customHeight="1">
+      <c r="A2" s="42"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="42"/>
+    </row>
+    <row r="3" spans="1:13" s="59" customFormat="1">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="57"/>
+      <c r="F3" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="58"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="B4" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="44"/>
+      <c r="F4" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="83" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="61"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="B5" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="83" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" s="61"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="44"/>
+      <c r="F6" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="83" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" s="61"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="83" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" s="61"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="44"/>
+      <c r="F8" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="83" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" s="61"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" s="61"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10" s="61"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="E11" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="M11" s="61"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="E12" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" s="61"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="B13" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" s="61"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="B14" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="M14" s="61"/>
+    </row>
+    <row r="15" spans="1:13" ht="34.799999999999997">
+      <c r="B15" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="83" t="s">
+        <v>118</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="M15" s="61"/>
+    </row>
+    <row r="16" spans="1:13" ht="34.799999999999997">
+      <c r="B16" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="M16" s="61"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="M17" s="61"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="M18" s="61"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="M19" s="61"/>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="M20" s="61"/>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="E21" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="M21" s="61"/>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="E22" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="M22" s="61"/>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="M23" s="61"/>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="E24" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="M24" s="61"/>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="M25" s="61"/>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="M26" s="61"/>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="H27" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="M27" s="61"/>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="C28" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="M28" s="61"/>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="H29" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="M29" s="61"/>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="M30" s="61"/>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="H31" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="M31" s="63"/>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="C32" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="H32" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="M32" s="63"/>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="F33" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="83" t="s">
+        <v>129</v>
+      </c>
+      <c r="H33" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="M33" s="63"/>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="C34" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="H34" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="M34" s="63"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="F35" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="M35" s="61"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="F36" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" s="83" t="s">
+        <v>147</v>
+      </c>
+      <c r="H36" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="M36" s="63"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="F37" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="M37" s="63"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" s="83" t="s">
+        <v>152</v>
+      </c>
+      <c r="H38" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="M38" s="63"/>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="F39" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="M39" s="63"/>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="E40" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="F40" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="M40" s="63"/>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="E41" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="F41" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" s="43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="62" t="s">
+        <v>168</v>
+      </c>
+      <c r="E42" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="F42" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" s="83" t="s">
+        <v>165</v>
+      </c>
+      <c r="H42" s="43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="E43" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="F43" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G43" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="H43" s="43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="F44" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" s="43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" ht="34.799999999999997">
+      <c r="B45" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="F45" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G45" s="83" t="s">
+        <v>172</v>
+      </c>
+      <c r="H45" s="43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="F46" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" s="43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="62" t="s">
+        <v>173</v>
+      </c>
+      <c r="F47" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="G47" s="83" t="s">
+        <v>174</v>
+      </c>
+      <c r="H47" s="43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" ht="34.799999999999997">
+      <c r="B48" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="F48" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G48" s="83" t="s">
+        <v>177</v>
+      </c>
+      <c r="H48" s="43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6">
+      <c r="F49" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6">
+      <c r="F50" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6">
+      <c r="F51" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="6:6">
+      <c r="F52" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="6:6">
+      <c r="F53" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="6:6">
+      <c r="F54" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="6:6">
+      <c r="F55" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="6:6">
+      <c r="F56" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="6:6">
+      <c r="F57" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="6:6">
+      <c r="F58" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="6:6">
+      <c r="F59" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="6:6">
+      <c r="F60" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="6:6">
+      <c r="F61" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="6:6">
+      <c r="F62" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="6:6">
+      <c r="F63" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="6:6">
+      <c r="F64" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6">
+      <c r="F65" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6">
+      <c r="F66" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6">
+      <c r="F67" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="6:6">
+      <c r="F68" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6">
+      <c r="F69" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="6:6">
+      <c r="F70" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="6:6">
+      <c r="F71" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="6:6">
+      <c r="F72" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="6:6">
+      <c r="F73" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="6:6">
+      <c r="F74" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="6:6">
+      <c r="F75" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="6:6">
+      <c r="F76" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="6:6">
+      <c r="F77" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" spans="6:6">
+      <c r="F78" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="6:6">
+      <c r="F79" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="6:6">
+      <c r="F80" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6">
+      <c r="F81" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="6:6">
+      <c r="F82" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="6:6">
+      <c r="F83" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="6:6">
+      <c r="F84" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" spans="6:6">
+      <c r="F85" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="86" spans="6:6">
+      <c r="F86" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="6:6">
+      <c r="F87" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="88" spans="6:6">
+      <c r="F88" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="89" spans="6:6">
+      <c r="F89" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="6:6">
+      <c r="F90" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91" spans="6:6">
+      <c r="F91" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" spans="6:6">
+      <c r="F92" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="93" spans="6:6">
+      <c r="F93" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" spans="6:6">
+      <c r="F94" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" spans="6:6">
+      <c r="F95" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="96" spans="6:6">
+      <c r="F96" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="97" spans="6:6">
+      <c r="F97" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="98" spans="6:6">
+      <c r="F98" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="99" spans="6:6">
+      <c r="F99" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="100" spans="6:6">
+      <c r="F100" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="101" spans="6:6">
+      <c r="F101" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="102" spans="6:6">
+      <c r="F102" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="103" spans="6:6">
+      <c r="F103" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="104" spans="6:6">
+      <c r="F104" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="105" spans="6:6">
+      <c r="F105" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="106" spans="6:6">
+      <c r="F106" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="107" spans="6:6">
+      <c r="F107" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="108" spans="6:6">
+      <c r="F108" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="109" spans="6:6">
+      <c r="F109" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="110" spans="6:6">
+      <c r="F110" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="111" spans="6:6">
+      <c r="F111" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="112" spans="6:6">
+      <c r="F112" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="113" spans="6:6">
+      <c r="F113" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="114" spans="6:6">
+      <c r="F114" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="115" spans="6:6">
+      <c r="F115" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="116" spans="6:6">
+      <c r="F116" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="117" spans="6:6">
+      <c r="F117" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="118" spans="6:6">
+      <c r="F118" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="119" spans="6:6">
+      <c r="F119" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="120" spans="6:6">
+      <c r="F120" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="121" spans="6:6">
+      <c r="F121" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="122" spans="6:6">
+      <c r="F122" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="123" spans="6:6">
+      <c r="F123" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="124" spans="6:6">
+      <c r="F124" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="125" spans="6:6">
+      <c r="F125" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="126" spans="6:6">
+      <c r="F126" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="127" spans="6:6">
+      <c r="F127" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="128" spans="6:6">
+      <c r="F128" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="D3:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F1048576">
+    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="N/P">
+      <formula>NOT(ISERROR(SEARCH("N/P",F3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",F3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C128">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",C4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="D">
+      <formula>NOT(ISERROR(SEARCH("D",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="B">
+      <formula>NOT(ISERROR(SEARCH("B",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="S">
+      <formula>NOT(ISERROR(SEARCH("S",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{768703D5-6A1C-4A48-AC07-15B73D7E8137}">
+          <x14:formula1>
+            <xm:f>'기타)드롭다운목록'!$B$2:$B$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1ECBD2E2-AF00-4237-966D-075FA4E2414A}">
+          <x14:formula1>
+            <xm:f>'기타)드롭다운목록'!$A$2:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>F4:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{42270651-7614-426B-93C7-6E65AB794044}">
+          <x14:formula1>
+            <xm:f>'기타)드롭다운목록'!$C$2:$C$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>C4:C1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E0D356-90A0-4A19-9533-9F61A2D90EC2}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -3353,63 +5751,143 @@
     <col min="1" max="1" width="8.796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1">
-      <c r="A1" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="11" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="11" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" s="9" t="s">
-        <v>71</v>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="45" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A2:A5">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="N/P">
+      <formula>NOT(ISERROR(SEARCH("N/P",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="S">
+      <formula>NOT(ISERROR(SEARCH("S",C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",C3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="B">
+      <formula>NOT(ISERROR(SEARCH("B",C4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",C5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="D">
+      <formula>NOT(ISERROR(SEARCH("D",C6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{34291051-79C5-4421-BB16-27D8EA0667CB}">
+      <formula1>$A$2:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{D8068B38-6BD2-4F04-A2B1-1E9A405C3D4C}">
+      <formula1>$C$2:$C$6</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/기획+QA.xlsx
+++ b/기획+QA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\little Hong\source\repos\PrimerPasoRPG\PrimerPasoRPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF26D88-97C2-4870-A6C5-65BBC0A4BBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6091B0C7-B9C2-40AD-9E35-66A4FFF432F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기획_직업" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="183">
   <si>
     <t>공격하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -539,10 +539,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기본 저장 파일에 몬스터 정보 맵 난이도별 2개씩 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>추가할 몬스터 정보 기획 (난이도별 1개씩)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -721,6 +717,29 @@
   </si>
   <si>
     <t>필요한 함수도 추가해 좀 더 가독성 있게 코드 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처치 시 최소 획득 골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처치 시 최대 획득 골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 저장 파일에 몬스터 정보 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Version.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료 버전</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -809,7 +828,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1047,17 +1066,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="1"/>
@@ -1105,11 +1113,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1169,18 +1201,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1208,10 +1228,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1221,9 +1237,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1245,18 +1258,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1266,25 +1270,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1297,10 +1292,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1319,6 +1314,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1861,13 +1886,13 @@
       <c r="G1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="78" t="s">
+      <c r="H1" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="78" t="s">
+      <c r="I1" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="78" t="s">
+      <c r="J1" s="65" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1893,12 +1918,12 @@
       <c r="G2" s="16">
         <v>100</v>
       </c>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79">
+      <c r="H2" s="66"/>
+      <c r="I2" s="66">
         <f>SUM(B2,E2:F2)/2</f>
         <v>262.5</v>
       </c>
-      <c r="J2" s="79">
+      <c r="J2" s="66">
         <f>SUM(C2:F2)/2</f>
         <v>272.5</v>
       </c>
@@ -1925,9 +1950,9 @@
       <c r="G3" s="16">
         <v>200</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="13" t="s">
@@ -1951,9 +1976,9 @@
       <c r="G4" s="16">
         <v>300</v>
       </c>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1965,7 +1990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB345A4-A0F8-4050-8D1A-C9A53942955C}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1984,7 +2009,7 @@
       <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="61" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="1"/>
@@ -1998,9 +2023,9 @@
         <v>73</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="D2" s="77"/>
+        <v>161</v>
+      </c>
+      <c r="D2" s="64"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
@@ -2010,9 +2035,9 @@
         <v>77</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" s="77"/>
+        <v>162</v>
+      </c>
+      <c r="D3" s="64"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
@@ -2022,9 +2047,9 @@
         <v>78</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="D4" s="77"/>
+        <v>163</v>
+      </c>
+      <c r="D4" s="64"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2034,10 +2059,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -2046,13 +2071,14 @@
     <col min="2" max="2" width="25.59765625" style="1" customWidth="1"/>
     <col min="3" max="9" width="14.8984375" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.8984375" style="1" customWidth="1"/>
-    <col min="11" max="12" width="14.8984375" style="1" customWidth="1"/>
-    <col min="13" max="35" width="25.59765625" style="1" customWidth="1"/>
-    <col min="36" max="16384" width="9" style="1"/>
+    <col min="11" max="12" width="19.69921875" style="1" customWidth="1"/>
+    <col min="13" max="14" width="14.8984375" style="1" customWidth="1"/>
+    <col min="15" max="37" width="25.59765625" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="62" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="14" t="s">
@@ -2065,36 +2091,42 @@
         <v>11</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>154</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>155</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="I1" s="72" t="s">
+      <c r="J1" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="K1" s="74" t="s">
+      <c r="K1" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="L1" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="M1" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="74" t="s">
+      <c r="N1" s="61" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="76" t="s">
+    <row r="2" spans="1:14">
+      <c r="A2" s="63" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="15">
         <v>10</v>
@@ -2114,27 +2146,33 @@
       <c r="H2" s="15">
         <v>10</v>
       </c>
-      <c r="I2" s="73">
+      <c r="I2" s="60">
         <v>1</v>
       </c>
       <c r="J2" s="5">
         <v>1000</v>
       </c>
-      <c r="K2" s="74">
+      <c r="K2" s="60">
+        <v>1000</v>
+      </c>
+      <c r="L2" s="60">
+        <v>2000</v>
+      </c>
+      <c r="M2" s="61">
         <f>SUM(C2,F2:G2)/2</f>
         <v>57.5</v>
       </c>
-      <c r="L2" s="74">
+      <c r="N2" s="61">
         <f>SUM(D2:G2)/2</f>
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="76" t="s">
+    <row r="3" spans="1:14">
+      <c r="A3" s="63" t="s">
         <v>75</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C3" s="15">
         <v>50</v>
@@ -2154,27 +2192,33 @@
       <c r="H3" s="15">
         <v>300</v>
       </c>
-      <c r="I3" s="73">
+      <c r="I3" s="60">
         <v>5</v>
       </c>
       <c r="J3" s="5">
         <v>7000</v>
       </c>
-      <c r="K3" s="74">
+      <c r="K3" s="60">
+        <v>5000</v>
+      </c>
+      <c r="L3" s="60">
+        <v>7000</v>
+      </c>
+      <c r="M3" s="61">
         <f>SUM(C3,F3:G3)/2</f>
         <v>1055</v>
       </c>
-      <c r="L3" s="74">
+      <c r="N3" s="61">
         <f>SUM(D3:G3)/2</f>
         <v>1090</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="76" t="s">
+    <row r="4" spans="1:14">
+      <c r="A4" s="63" t="s">
         <v>76</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" s="15">
         <v>150</v>
@@ -2192,18 +2236,24 @@
         <v>10000</v>
       </c>
       <c r="H4" s="15">
-        <v>10000</v>
-      </c>
-      <c r="I4" s="73">
+        <v>1200</v>
+      </c>
+      <c r="I4" s="60">
         <v>10</v>
       </c>
       <c r="J4" s="5">
         <v>25000</v>
       </c>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="K4" s="60">
+        <v>30000</v>
+      </c>
+      <c r="L4" s="60">
+        <v>50000</v>
+      </c>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -2216,8 +2266,10 @@
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5"/>
+      <c r="N5"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -2230,13 +2282,15 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="L2" formulaRange="1"/>
+    <ignoredError sqref="N2" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2379,7 +2433,7 @@
     <col min="3" max="3" width="82.8984375" style="4" customWidth="1"/>
     <col min="4" max="5" width="18.5" style="4" customWidth="1"/>
     <col min="6" max="6" width="11" style="5" customWidth="1"/>
-    <col min="7" max="7" width="30.69921875" style="40" customWidth="1"/>
+    <col min="7" max="7" width="30.69921875" style="36" customWidth="1"/>
     <col min="8" max="8" width="15.59765625" style="11" customWidth="1"/>
     <col min="9" max="20" width="15.59765625" style="9" customWidth="1"/>
     <col min="21" max="16384" width="8.796875" style="9"/>
@@ -2389,13 +2443,13 @@
       <c r="B1" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="31"/>
+      <c r="D1" s="71"/>
       <c r="E1" s="11"/>
       <c r="F1" s="21"/>
-      <c r="G1" s="42"/>
+      <c r="G1" s="38"/>
       <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:13" ht="19.8" customHeight="1">
@@ -2405,7 +2459,7 @@
       <c r="D2" s="12"/>
       <c r="E2" s="10"/>
       <c r="F2" s="22"/>
-      <c r="G2" s="54"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:13" s="23" customFormat="1">
@@ -2413,15 +2467,15 @@
       <c r="B3" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
       <c r="F3" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="37" t="s">
         <v>108</v>
       </c>
       <c r="H3" s="26"/>
@@ -3216,26 +3270,26 @@
     <col min="8" max="16384" width="8.796875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="37" customFormat="1">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:7" s="33" customFormat="1">
+      <c r="A1" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="37" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3255,10 +3309,10 @@
       <c r="E2" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3268,8 +3322,8 @@
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="43" t="s">
+      <c r="F3" s="35"/>
+      <c r="G3" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3279,8 +3333,8 @@
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="43" t="s">
+      <c r="F4" s="35"/>
+      <c r="G4" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3290,8 +3344,8 @@
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="43" t="s">
+      <c r="F5" s="35"/>
+      <c r="G5" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3301,8 +3355,8 @@
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="43" t="s">
+      <c r="F6" s="35"/>
+      <c r="G6" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3312,8 +3366,8 @@
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="43" t="s">
+      <c r="F7" s="35"/>
+      <c r="G7" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3323,8 +3377,8 @@
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="43" t="s">
+      <c r="F8" s="35"/>
+      <c r="G8" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3334,8 +3388,8 @@
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="43" t="s">
+      <c r="F9" s="35"/>
+      <c r="G9" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3345,8 +3399,8 @@
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="43" t="s">
+      <c r="F10" s="35"/>
+      <c r="G10" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3356,8 +3410,8 @@
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="43" t="s">
+      <c r="F11" s="35"/>
+      <c r="G11" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3367,8 +3421,8 @@
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="43" t="s">
+      <c r="F12" s="35"/>
+      <c r="G12" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3378,8 +3432,8 @@
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="43" t="s">
+      <c r="F13" s="35"/>
+      <c r="G13" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3389,8 +3443,8 @@
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="43" t="s">
+      <c r="F14" s="35"/>
+      <c r="G14" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3400,8 +3454,8 @@
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="43" t="s">
+      <c r="F15" s="35"/>
+      <c r="G15" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3411,8 +3465,8 @@
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="43" t="s">
+      <c r="F16" s="35"/>
+      <c r="G16" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3422,8 +3476,8 @@
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="43" t="s">
+      <c r="F17" s="35"/>
+      <c r="G17" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3433,8 +3487,8 @@
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="43" t="s">
+      <c r="F18" s="35"/>
+      <c r="G18" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3444,8 +3498,8 @@
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="43" t="s">
+      <c r="F19" s="35"/>
+      <c r="G19" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3455,8 +3509,8 @@
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="43" t="s">
+      <c r="F20" s="35"/>
+      <c r="G20" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3466,8 +3520,8 @@
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="43" t="s">
+      <c r="F21" s="35"/>
+      <c r="G21" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3477,8 +3531,8 @@
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="43" t="s">
+      <c r="F22" s="35"/>
+      <c r="G22" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3488,8 +3542,8 @@
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="43" t="s">
+      <c r="F23" s="35"/>
+      <c r="G23" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3499,8 +3553,8 @@
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="43" t="s">
+      <c r="F24" s="35"/>
+      <c r="G24" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3510,8 +3564,8 @@
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="43" t="s">
+      <c r="F25" s="35"/>
+      <c r="G25" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3521,8 +3575,8 @@
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="43" t="s">
+      <c r="F26" s="35"/>
+      <c r="G26" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3532,8 +3586,8 @@
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="43" t="s">
+      <c r="F27" s="35"/>
+      <c r="G27" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3543,8 +3597,8 @@
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="43" t="s">
+      <c r="F28" s="35"/>
+      <c r="G28" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3554,8 +3608,8 @@
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="43" t="s">
+      <c r="F29" s="35"/>
+      <c r="G29" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3565,8 +3619,8 @@
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="43" t="s">
+      <c r="F30" s="35"/>
+      <c r="G30" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3576,8 +3630,8 @@
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="43" t="s">
+      <c r="F31" s="35"/>
+      <c r="G31" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3587,8 +3641,8 @@
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="43" t="s">
+      <c r="F32" s="35"/>
+      <c r="G32" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3598,8 +3652,8 @@
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="43" t="s">
+      <c r="F33" s="35"/>
+      <c r="G33" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3609,8 +3663,8 @@
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="43" t="s">
+      <c r="F34" s="35"/>
+      <c r="G34" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3620,8 +3674,8 @@
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="43" t="s">
+      <c r="F35" s="35"/>
+      <c r="G35" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3631,8 +3685,8 @@
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="43" t="s">
+      <c r="F36" s="35"/>
+      <c r="G36" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3642,8 +3696,8 @@
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="43" t="s">
+      <c r="F37" s="35"/>
+      <c r="G37" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3653,8 +3707,8 @@
       <c r="C38" s="18"/>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="43" t="s">
+      <c r="F38" s="35"/>
+      <c r="G38" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3664,8 +3718,8 @@
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="43" t="s">
+      <c r="F39" s="35"/>
+      <c r="G39" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3675,8 +3729,8 @@
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="43" t="s">
+      <c r="F40" s="35"/>
+      <c r="G40" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3686,8 +3740,8 @@
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="43" t="s">
+      <c r="F41" s="35"/>
+      <c r="G41" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3697,8 +3751,8 @@
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="43" t="s">
+      <c r="F42" s="35"/>
+      <c r="G42" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3708,8 +3762,8 @@
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="43" t="s">
+      <c r="F43" s="35"/>
+      <c r="G43" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3719,8 +3773,8 @@
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="43" t="s">
+      <c r="F44" s="35"/>
+      <c r="G44" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3730,8 +3784,8 @@
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="43" t="s">
+      <c r="F45" s="35"/>
+      <c r="G45" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3741,8 +3795,8 @@
       <c r="C46" s="18"/>
       <c r="D46" s="18"/>
       <c r="E46" s="18"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="43" t="s">
+      <c r="F46" s="35"/>
+      <c r="G46" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3752,8 +3806,8 @@
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
       <c r="E47" s="18"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="43" t="s">
+      <c r="F47" s="35"/>
+      <c r="G47" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3763,8 +3817,8 @@
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="43" t="s">
+      <c r="F48" s="35"/>
+      <c r="G48" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3774,8 +3828,8 @@
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="43" t="s">
+      <c r="F49" s="35"/>
+      <c r="G49" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3785,8 +3839,8 @@
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
       <c r="E50" s="18"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="43" t="s">
+      <c r="F50" s="35"/>
+      <c r="G50" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3796,8 +3850,8 @@
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
       <c r="E51" s="18"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="43" t="s">
+      <c r="F51" s="35"/>
+      <c r="G51" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3807,8 +3861,8 @@
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
       <c r="E52" s="18"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="43" t="s">
+      <c r="F52" s="35"/>
+      <c r="G52" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3818,8 +3872,8 @@
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
       <c r="E53" s="18"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="43" t="s">
+      <c r="F53" s="35"/>
+      <c r="G53" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3829,8 +3883,8 @@
       <c r="C54" s="18"/>
       <c r="D54" s="18"/>
       <c r="E54" s="18"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="43" t="s">
+      <c r="F54" s="35"/>
+      <c r="G54" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3840,8 +3894,8 @@
       <c r="C55" s="18"/>
       <c r="D55" s="18"/>
       <c r="E55" s="18"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="43" t="s">
+      <c r="F55" s="35"/>
+      <c r="G55" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3851,8 +3905,8 @@
       <c r="C56" s="18"/>
       <c r="D56" s="18"/>
       <c r="E56" s="18"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="43" t="s">
+      <c r="F56" s="35"/>
+      <c r="G56" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3862,8 +3916,8 @@
       <c r="C57" s="18"/>
       <c r="D57" s="18"/>
       <c r="E57" s="18"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="43" t="s">
+      <c r="F57" s="35"/>
+      <c r="G57" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3873,8 +3927,8 @@
       <c r="C58" s="18"/>
       <c r="D58" s="18"/>
       <c r="E58" s="18"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="43" t="s">
+      <c r="F58" s="35"/>
+      <c r="G58" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3884,8 +3938,8 @@
       <c r="C59" s="18"/>
       <c r="D59" s="18"/>
       <c r="E59" s="18"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="43" t="s">
+      <c r="F59" s="35"/>
+      <c r="G59" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3895,8 +3949,8 @@
       <c r="C60" s="18"/>
       <c r="D60" s="18"/>
       <c r="E60" s="18"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="43" t="s">
+      <c r="F60" s="35"/>
+      <c r="G60" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3906,8 +3960,8 @@
       <c r="C61" s="18"/>
       <c r="D61" s="18"/>
       <c r="E61" s="18"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="43" t="s">
+      <c r="F61" s="35"/>
+      <c r="G61" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3917,8 +3971,8 @@
       <c r="C62" s="18"/>
       <c r="D62" s="18"/>
       <c r="E62" s="18"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="43" t="s">
+      <c r="F62" s="35"/>
+      <c r="G62" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3928,8 +3982,8 @@
       <c r="C63" s="18"/>
       <c r="D63" s="18"/>
       <c r="E63" s="18"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="43" t="s">
+      <c r="F63" s="35"/>
+      <c r="G63" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3939,8 +3993,8 @@
       <c r="C64" s="18"/>
       <c r="D64" s="18"/>
       <c r="E64" s="18"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="43" t="s">
+      <c r="F64" s="35"/>
+      <c r="G64" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3950,8 +4004,8 @@
       <c r="C65" s="18"/>
       <c r="D65" s="18"/>
       <c r="E65" s="18"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="43" t="s">
+      <c r="F65" s="35"/>
+      <c r="G65" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3961,8 +4015,8 @@
       <c r="C66" s="18"/>
       <c r="D66" s="18"/>
       <c r="E66" s="18"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="43" t="s">
+      <c r="F66" s="35"/>
+      <c r="G66" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3972,8 +4026,8 @@
       <c r="C67" s="18"/>
       <c r="D67" s="18"/>
       <c r="E67" s="18"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="43" t="s">
+      <c r="F67" s="35"/>
+      <c r="G67" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3983,8 +4037,8 @@
       <c r="C68" s="18"/>
       <c r="D68" s="18"/>
       <c r="E68" s="18"/>
-      <c r="F68" s="39"/>
-      <c r="G68" s="43" t="s">
+      <c r="F68" s="35"/>
+      <c r="G68" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3994,8 +4048,8 @@
       <c r="C69" s="18"/>
       <c r="D69" s="18"/>
       <c r="E69" s="18"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="43" t="s">
+      <c r="F69" s="35"/>
+      <c r="G69" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4005,8 +4059,8 @@
       <c r="C70" s="18"/>
       <c r="D70" s="18"/>
       <c r="E70" s="18"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="43" t="s">
+      <c r="F70" s="35"/>
+      <c r="G70" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4016,8 +4070,8 @@
       <c r="C71" s="18"/>
       <c r="D71" s="18"/>
       <c r="E71" s="18"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="43" t="s">
+      <c r="F71" s="35"/>
+      <c r="G71" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4027,8 +4081,8 @@
       <c r="C72" s="18"/>
       <c r="D72" s="18"/>
       <c r="E72" s="18"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="43" t="s">
+      <c r="F72" s="35"/>
+      <c r="G72" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4038,8 +4092,8 @@
       <c r="C73" s="18"/>
       <c r="D73" s="18"/>
       <c r="E73" s="18"/>
-      <c r="F73" s="39"/>
-      <c r="G73" s="43" t="s">
+      <c r="F73" s="35"/>
+      <c r="G73" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4049,8 +4103,8 @@
       <c r="C74" s="18"/>
       <c r="D74" s="18"/>
       <c r="E74" s="18"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="43" t="s">
+      <c r="F74" s="35"/>
+      <c r="G74" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4060,8 +4114,8 @@
       <c r="C75" s="18"/>
       <c r="D75" s="18"/>
       <c r="E75" s="18"/>
-      <c r="F75" s="39"/>
-      <c r="G75" s="43" t="s">
+      <c r="F75" s="35"/>
+      <c r="G75" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4071,8 +4125,8 @@
       <c r="C76" s="18"/>
       <c r="D76" s="18"/>
       <c r="E76" s="18"/>
-      <c r="F76" s="39"/>
-      <c r="G76" s="43" t="s">
+      <c r="F76" s="35"/>
+      <c r="G76" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4082,8 +4136,8 @@
       <c r="C77" s="18"/>
       <c r="D77" s="18"/>
       <c r="E77" s="18"/>
-      <c r="F77" s="39"/>
-      <c r="G77" s="43" t="s">
+      <c r="F77" s="35"/>
+      <c r="G77" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4093,8 +4147,8 @@
       <c r="C78" s="18"/>
       <c r="D78" s="18"/>
       <c r="E78" s="18"/>
-      <c r="F78" s="39"/>
-      <c r="G78" s="43" t="s">
+      <c r="F78" s="35"/>
+      <c r="G78" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4104,8 +4158,8 @@
       <c r="C79" s="18"/>
       <c r="D79" s="18"/>
       <c r="E79" s="18"/>
-      <c r="F79" s="39"/>
-      <c r="G79" s="43" t="s">
+      <c r="F79" s="35"/>
+      <c r="G79" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4115,8 +4169,8 @@
       <c r="C80" s="18"/>
       <c r="D80" s="18"/>
       <c r="E80" s="18"/>
-      <c r="F80" s="39"/>
-      <c r="G80" s="43" t="s">
+      <c r="F80" s="35"/>
+      <c r="G80" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4126,8 +4180,8 @@
       <c r="C81" s="18"/>
       <c r="D81" s="18"/>
       <c r="E81" s="18"/>
-      <c r="F81" s="39"/>
-      <c r="G81" s="43" t="s">
+      <c r="F81" s="35"/>
+      <c r="G81" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4137,8 +4191,8 @@
       <c r="C82" s="18"/>
       <c r="D82" s="18"/>
       <c r="E82" s="18"/>
-      <c r="F82" s="39"/>
-      <c r="G82" s="43" t="s">
+      <c r="F82" s="35"/>
+      <c r="G82" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4148,8 +4202,8 @@
       <c r="C83" s="18"/>
       <c r="D83" s="18"/>
       <c r="E83" s="18"/>
-      <c r="F83" s="39"/>
-      <c r="G83" s="43" t="s">
+      <c r="F83" s="35"/>
+      <c r="G83" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4159,8 +4213,8 @@
       <c r="C84" s="18"/>
       <c r="D84" s="18"/>
       <c r="E84" s="18"/>
-      <c r="F84" s="39"/>
-      <c r="G84" s="43" t="s">
+      <c r="F84" s="35"/>
+      <c r="G84" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4170,8 +4224,8 @@
       <c r="C85" s="18"/>
       <c r="D85" s="18"/>
       <c r="E85" s="18"/>
-      <c r="F85" s="39"/>
-      <c r="G85" s="43" t="s">
+      <c r="F85" s="35"/>
+      <c r="G85" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4181,8 +4235,8 @@
       <c r="C86" s="18"/>
       <c r="D86" s="18"/>
       <c r="E86" s="18"/>
-      <c r="F86" s="39"/>
-      <c r="G86" s="43" t="s">
+      <c r="F86" s="35"/>
+      <c r="G86" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4192,8 +4246,8 @@
       <c r="C87" s="18"/>
       <c r="D87" s="18"/>
       <c r="E87" s="18"/>
-      <c r="F87" s="39"/>
-      <c r="G87" s="43" t="s">
+      <c r="F87" s="35"/>
+      <c r="G87" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4203,8 +4257,8 @@
       <c r="C88" s="18"/>
       <c r="D88" s="18"/>
       <c r="E88" s="18"/>
-      <c r="F88" s="39"/>
-      <c r="G88" s="43" t="s">
+      <c r="F88" s="35"/>
+      <c r="G88" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4214,8 +4268,8 @@
       <c r="C89" s="18"/>
       <c r="D89" s="18"/>
       <c r="E89" s="18"/>
-      <c r="F89" s="39"/>
-      <c r="G89" s="43" t="s">
+      <c r="F89" s="35"/>
+      <c r="G89" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4225,8 +4279,8 @@
       <c r="C90" s="18"/>
       <c r="D90" s="18"/>
       <c r="E90" s="18"/>
-      <c r="F90" s="39"/>
-      <c r="G90" s="43" t="s">
+      <c r="F90" s="35"/>
+      <c r="G90" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4236,8 +4290,8 @@
       <c r="C91" s="18"/>
       <c r="D91" s="18"/>
       <c r="E91" s="18"/>
-      <c r="F91" s="39"/>
-      <c r="G91" s="43" t="s">
+      <c r="F91" s="35"/>
+      <c r="G91" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4247,8 +4301,8 @@
       <c r="C92" s="18"/>
       <c r="D92" s="18"/>
       <c r="E92" s="18"/>
-      <c r="F92" s="39"/>
-      <c r="G92" s="43" t="s">
+      <c r="F92" s="35"/>
+      <c r="G92" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4258,8 +4312,8 @@
       <c r="C93" s="18"/>
       <c r="D93" s="18"/>
       <c r="E93" s="18"/>
-      <c r="F93" s="39"/>
-      <c r="G93" s="43" t="s">
+      <c r="F93" s="35"/>
+      <c r="G93" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4269,8 +4323,8 @@
       <c r="C94" s="18"/>
       <c r="D94" s="18"/>
       <c r="E94" s="18"/>
-      <c r="F94" s="39"/>
-      <c r="G94" s="43" t="s">
+      <c r="F94" s="35"/>
+      <c r="G94" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4280,8 +4334,8 @@
       <c r="C95" s="18"/>
       <c r="D95" s="18"/>
       <c r="E95" s="18"/>
-      <c r="F95" s="39"/>
-      <c r="G95" s="43" t="s">
+      <c r="F95" s="35"/>
+      <c r="G95" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4291,8 +4345,8 @@
       <c r="C96" s="18"/>
       <c r="D96" s="18"/>
       <c r="E96" s="18"/>
-      <c r="F96" s="39"/>
-      <c r="G96" s="43" t="s">
+      <c r="F96" s="35"/>
+      <c r="G96" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4302,8 +4356,8 @@
       <c r="C97" s="18"/>
       <c r="D97" s="18"/>
       <c r="E97" s="18"/>
-      <c r="F97" s="39"/>
-      <c r="G97" s="43" t="s">
+      <c r="F97" s="35"/>
+      <c r="G97" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4313,8 +4367,8 @@
       <c r="C98" s="18"/>
       <c r="D98" s="18"/>
       <c r="E98" s="18"/>
-      <c r="F98" s="39"/>
-      <c r="G98" s="43" t="s">
+      <c r="F98" s="35"/>
+      <c r="G98" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4324,8 +4378,8 @@
       <c r="C99" s="18"/>
       <c r="D99" s="18"/>
       <c r="E99" s="18"/>
-      <c r="F99" s="39"/>
-      <c r="G99" s="43" t="s">
+      <c r="F99" s="35"/>
+      <c r="G99" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4371,1303 +4425,1355 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B03DAE-7C2C-40BD-A7FB-06E7A03B2CEF}">
   <dimension ref="A1:M128"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="2.296875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="11.296875" style="43" customWidth="1"/>
-    <col min="3" max="3" width="7.19921875" style="43" customWidth="1"/>
-    <col min="4" max="4" width="63.8984375" style="62" customWidth="1"/>
-    <col min="5" max="5" width="21.69921875" style="62" customWidth="1"/>
-    <col min="6" max="6" width="9.69921875" style="43" customWidth="1"/>
-    <col min="7" max="7" width="37.69921875" style="83" customWidth="1"/>
-    <col min="8" max="8" width="13.3984375" style="40" customWidth="1"/>
-    <col min="9" max="9" width="15.59765625" style="60" customWidth="1"/>
-    <col min="10" max="20" width="15.59765625" style="42" customWidth="1"/>
-    <col min="21" max="16384" width="8.796875" style="42"/>
+    <col min="1" max="1" width="2.296875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="11.296875" style="39" customWidth="1"/>
+    <col min="3" max="3" width="7.19921875" style="39" customWidth="1"/>
+    <col min="4" max="4" width="63.8984375" style="52" customWidth="1"/>
+    <col min="5" max="5" width="21.69921875" style="52" customWidth="1"/>
+    <col min="6" max="6" width="9.69921875" style="39" customWidth="1"/>
+    <col min="7" max="7" width="37.69921875" style="70" customWidth="1"/>
+    <col min="8" max="9" width="13.3984375" style="36" customWidth="1"/>
+    <col min="10" max="20" width="15.59765625" style="38" customWidth="1"/>
+    <col min="21" max="16384" width="8.796875" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.8" customHeight="1">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="76"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="H1" s="80"/>
+      <c r="I1" s="79"/>
+    </row>
+    <row r="2" spans="1:13" ht="19.8" customHeight="1">
+      <c r="A2" s="38"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+    </row>
+    <row r="3" spans="1:13" s="50" customFormat="1">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="78"/>
+      <c r="F3" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="B4" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="30"/>
+      <c r="F4" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="M4" s="51"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="B5" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="39"/>
+      <c r="M5" s="51"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="30"/>
+      <c r="F6" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="39"/>
+      <c r="M6" s="51"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="M7" s="51"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="39"/>
+      <c r="M8" s="51"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="80" t="s">
+      <c r="D9" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="G9" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="H9" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="42"/>
-    </row>
-    <row r="2" spans="1:13" ht="19.8" customHeight="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="42"/>
-    </row>
-    <row r="3" spans="1:13" s="59" customFormat="1">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="82" t="s">
-        <v>108</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="I3" s="58"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="B4" s="43" t="s">
+      <c r="I9" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="M9" s="51"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="39"/>
+      <c r="M10" s="51"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="E11" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="39"/>
+      <c r="M11" s="51"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="E12" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="39"/>
+      <c r="M12" s="51"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="B13" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="83" t="s">
-        <v>114</v>
-      </c>
-      <c r="H4" s="43" t="s">
+      <c r="C13" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="M4" s="61"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="B5" s="43" t="s">
+      <c r="I13" s="39"/>
+      <c r="M13" s="51"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="B14" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="39"/>
+      <c r="M14" s="51"/>
+    </row>
+    <row r="15" spans="1:13" ht="34.799999999999997">
+      <c r="B15" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="G15" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="M15" s="51"/>
+    </row>
+    <row r="16" spans="1:13" ht="34.799999999999997">
+      <c r="B16" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" s="39"/>
+      <c r="M16" s="51"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="39"/>
+      <c r="M17" s="51"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="39"/>
+      <c r="M18" s="51"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" s="39"/>
+      <c r="M19" s="51"/>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" s="39"/>
+      <c r="M20" s="51"/>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="E21" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21" s="39"/>
+      <c r="M21" s="51"/>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="E22" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="39"/>
+      <c r="M22" s="51"/>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23" s="39"/>
+      <c r="M23" s="51"/>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="E24" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" s="39"/>
+      <c r="M24" s="51"/>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" s="39"/>
+      <c r="M25" s="51"/>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" s="39"/>
+      <c r="M26" s="51"/>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="H27" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27" s="39"/>
+      <c r="M27" s="51"/>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="C28" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28" s="39"/>
+      <c r="M28" s="51"/>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="H29" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" s="39"/>
+      <c r="M29" s="51"/>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" s="39"/>
+      <c r="M30" s="51"/>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I31" s="39"/>
+      <c r="M31" s="53"/>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="C32" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="H32" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I32" s="39"/>
+      <c r="M32" s="53"/>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="F33" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="H33" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33" s="39"/>
+      <c r="M33" s="53"/>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="C34" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="H34" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I34" s="39"/>
+      <c r="M34" s="53"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="83" t="s">
-        <v>114</v>
-      </c>
-      <c r="H5" s="43" t="s">
+      <c r="C35" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="M5" s="61"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="B6" s="43" t="s">
+      <c r="I35" s="39"/>
+      <c r="M35" s="51"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="F36" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="H36" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I36" s="39"/>
+      <c r="M36" s="53"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="F37" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I37" s="39"/>
+      <c r="M37" s="53"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="F38" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" s="70" t="s">
+        <v>151</v>
+      </c>
+      <c r="H38" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I38" s="39"/>
+      <c r="M38" s="53"/>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="F39" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I39" s="39"/>
+      <c r="M39" s="53"/>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F40" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I40" s="39"/>
+      <c r="M40" s="53"/>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="E41" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="F41" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I41" s="39"/>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="E42" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="F42" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" s="70" t="s">
+        <v>164</v>
+      </c>
+      <c r="H42" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I42" s="39"/>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="E43" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="F43" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="G43" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="H43" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I43" s="39"/>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="F44" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I44" s="39"/>
+    </row>
+    <row r="45" spans="2:13" ht="34.799999999999997">
+      <c r="B45" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="83" t="s">
-        <v>114</v>
-      </c>
-      <c r="H6" s="43" t="s">
+      <c r="C45" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="F45" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="G45" s="70" t="s">
+        <v>171</v>
+      </c>
+      <c r="H45" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="M6" s="61"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="B7" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="83" t="s">
-        <v>114</v>
-      </c>
-      <c r="H7" s="43" t="s">
+      <c r="I45" s="39"/>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="F46" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="M7" s="61"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="B8" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="69" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="83" t="s">
-        <v>114</v>
-      </c>
-      <c r="H8" s="43" t="s">
+      <c r="I46" s="39"/>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="F47" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="G47" s="70" t="s">
+        <v>173</v>
+      </c>
+      <c r="H47" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="M8" s="61"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="B9" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="83" t="s">
-        <v>144</v>
-      </c>
-      <c r="H9" s="43" t="s">
+      <c r="I47" s="39"/>
+    </row>
+    <row r="48" spans="2:13" ht="34.799999999999997">
+      <c r="B48" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="C48" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="F48" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="G48" s="70" t="s">
+        <v>176</v>
+      </c>
+      <c r="H48" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="M9" s="61"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="B10" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="D10" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="M10" s="61"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="E11" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="M11" s="61"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="E12" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="M12" s="61"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="B13" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="D13" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="M13" s="61"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="B14" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="D14" s="62" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="M14" s="61"/>
-    </row>
-    <row r="15" spans="1:13" ht="34.799999999999997">
-      <c r="B15" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15" s="62" t="s">
-        <v>112</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="83" t="s">
-        <v>118</v>
-      </c>
-      <c r="H15" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="M15" s="61"/>
-    </row>
-    <row r="16" spans="1:13" ht="34.799999999999997">
-      <c r="B16" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="M16" s="61"/>
-    </row>
-    <row r="17" spans="2:13">
-      <c r="B17" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="83" t="s">
-        <v>117</v>
-      </c>
-      <c r="H17" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="M17" s="61"/>
-    </row>
-    <row r="18" spans="2:13">
-      <c r="B18" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="D18" s="62" t="s">
-        <v>111</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="M18" s="61"/>
-    </row>
-    <row r="19" spans="2:13">
-      <c r="B19" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="F19" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="83" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="M19" s="61"/>
-    </row>
-    <row r="20" spans="2:13">
-      <c r="B20" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="M20" s="61"/>
-    </row>
-    <row r="21" spans="2:13">
-      <c r="E21" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="M21" s="61"/>
-    </row>
-    <row r="22" spans="2:13">
-      <c r="E22" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="M22" s="61"/>
-    </row>
-    <row r="23" spans="2:13">
-      <c r="B23" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="D23" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="M23" s="61"/>
-    </row>
-    <row r="24" spans="2:13">
-      <c r="E24" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="M24" s="61"/>
-    </row>
-    <row r="25" spans="2:13">
-      <c r="B25" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="D25" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="F25" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="M25" s="61"/>
-    </row>
-    <row r="26" spans="2:13">
-      <c r="B26" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="D26" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="F26" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="M26" s="61"/>
-    </row>
-    <row r="27" spans="2:13">
-      <c r="B27" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="D27" s="62" t="s">
-        <v>123</v>
-      </c>
-      <c r="F27" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="83" t="s">
-        <v>122</v>
-      </c>
-      <c r="H27" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="M27" s="61"/>
-    </row>
-    <row r="28" spans="2:13">
-      <c r="C28" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="D28" s="62" t="s">
-        <v>124</v>
-      </c>
-      <c r="F28" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="M28" s="61"/>
-    </row>
-    <row r="29" spans="2:13">
-      <c r="B29" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="D29" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="F29" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="G29" s="83" t="s">
-        <v>115</v>
-      </c>
-      <c r="H29" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="M29" s="61"/>
-    </row>
-    <row r="30" spans="2:13">
-      <c r="B30" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="D30" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="E30" s="62" t="s">
-        <v>120</v>
-      </c>
-      <c r="F30" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="M30" s="61"/>
-    </row>
-    <row r="31" spans="2:13">
-      <c r="B31" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="D31" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="83" t="s">
-        <v>128</v>
-      </c>
-      <c r="H31" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="M31" s="63"/>
-    </row>
-    <row r="32" spans="2:13">
-      <c r="C32" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="D32" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="F32" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" s="83" t="s">
-        <v>125</v>
-      </c>
-      <c r="H32" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="M32" s="63"/>
-    </row>
-    <row r="33" spans="2:13">
-      <c r="B33" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="D33" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="F33" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="G33" s="83" t="s">
-        <v>129</v>
-      </c>
-      <c r="H33" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="M33" s="63"/>
-    </row>
-    <row r="34" spans="2:13">
-      <c r="C34" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="D34" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="F34" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="G34" s="83" t="s">
-        <v>125</v>
-      </c>
-      <c r="H34" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="M34" s="63"/>
-    </row>
-    <row r="35" spans="2:13">
-      <c r="B35" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="D35" s="62" t="s">
-        <v>145</v>
-      </c>
-      <c r="F35" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="M35" s="61"/>
-    </row>
-    <row r="36" spans="2:13">
-      <c r="B36" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="D36" s="62" t="s">
-        <v>146</v>
-      </c>
-      <c r="F36" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="G36" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="H36" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="M36" s="63"/>
-    </row>
-    <row r="37" spans="2:13">
-      <c r="B37" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="D37" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="F37" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="M37" s="63"/>
-    </row>
-    <row r="38" spans="2:13">
-      <c r="B38" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="C38" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="D38" s="62" t="s">
-        <v>150</v>
-      </c>
-      <c r="F38" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="G38" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="H38" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="M38" s="63"/>
-    </row>
-    <row r="39" spans="2:13">
-      <c r="B39" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="C39" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="D39" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="F39" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="M39" s="63"/>
-    </row>
-    <row r="40" spans="2:13">
-      <c r="B40" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="C40" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="D40" s="62" t="s">
-        <v>159</v>
-      </c>
-      <c r="E40" s="62" t="s">
-        <v>160</v>
-      </c>
-      <c r="F40" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="M40" s="63"/>
-    </row>
-    <row r="41" spans="2:13">
-      <c r="E41" s="62" t="s">
-        <v>161</v>
-      </c>
-      <c r="F41" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" s="43" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13">
-      <c r="B42" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="D42" s="62" t="s">
-        <v>168</v>
-      </c>
-      <c r="E42" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="F42" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G42" s="83" t="s">
-        <v>165</v>
-      </c>
-      <c r="H42" s="43" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13">
-      <c r="E43" s="62" t="s">
-        <v>166</v>
-      </c>
-      <c r="F43" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="G43" s="83" t="s">
-        <v>170</v>
-      </c>
-      <c r="H43" s="43" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13">
-      <c r="B44" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="D44" s="62" t="s">
-        <v>169</v>
-      </c>
-      <c r="F44" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H44" s="43" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" ht="34.799999999999997">
-      <c r="B45" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="D45" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="F45" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="G45" s="83" t="s">
-        <v>172</v>
-      </c>
-      <c r="H45" s="43" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13">
-      <c r="F46" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H46" s="43" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13">
-      <c r="B47" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="D47" s="62" t="s">
-        <v>173</v>
-      </c>
-      <c r="F47" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G47" s="83" t="s">
-        <v>174</v>
-      </c>
-      <c r="H47" s="43" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" ht="34.799999999999997">
-      <c r="B48" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="C48" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="D48" s="62" t="s">
-        <v>176</v>
-      </c>
-      <c r="F48" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="G48" s="83" t="s">
-        <v>177</v>
-      </c>
-      <c r="H48" s="43" t="s">
-        <v>79</v>
-      </c>
+      <c r="I48" s="39"/>
     </row>
     <row r="49" spans="6:6">
-      <c r="F49" s="43" t="s">
+      <c r="F49" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="50" spans="6:6">
-      <c r="F50" s="43" t="s">
+      <c r="F50" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="51" spans="6:6">
-      <c r="F51" s="43" t="s">
+      <c r="F51" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="52" spans="6:6">
-      <c r="F52" s="43" t="s">
+      <c r="F52" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="53" spans="6:6">
-      <c r="F53" s="43" t="s">
+      <c r="F53" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="54" spans="6:6">
-      <c r="F54" s="43" t="s">
+      <c r="F54" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="55" spans="6:6">
-      <c r="F55" s="43" t="s">
+      <c r="F55" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="56" spans="6:6">
-      <c r="F56" s="43" t="s">
+      <c r="F56" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="57" spans="6:6">
-      <c r="F57" s="43" t="s">
+      <c r="F57" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="58" spans="6:6">
-      <c r="F58" s="43" t="s">
+      <c r="F58" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="59" spans="6:6">
-      <c r="F59" s="43" t="s">
+      <c r="F59" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="60" spans="6:6">
-      <c r="F60" s="43" t="s">
+      <c r="F60" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="61" spans="6:6">
-      <c r="F61" s="43" t="s">
+      <c r="F61" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="62" spans="6:6">
-      <c r="F62" s="43" t="s">
+      <c r="F62" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="63" spans="6:6">
-      <c r="F63" s="43" t="s">
+      <c r="F63" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="64" spans="6:6">
-      <c r="F64" s="43" t="s">
+      <c r="F64" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="65" spans="6:6">
-      <c r="F65" s="43" t="s">
+      <c r="F65" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="66" spans="6:6">
-      <c r="F66" s="43" t="s">
+      <c r="F66" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="67" spans="6:6">
-      <c r="F67" s="43" t="s">
+      <c r="F67" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="68" spans="6:6">
-      <c r="F68" s="43" t="s">
+      <c r="F68" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="69" spans="6:6">
-      <c r="F69" s="43" t="s">
+      <c r="F69" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="70" spans="6:6">
-      <c r="F70" s="43" t="s">
+      <c r="F70" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="71" spans="6:6">
-      <c r="F71" s="43" t="s">
+      <c r="F71" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="72" spans="6:6">
-      <c r="F72" s="43" t="s">
+      <c r="F72" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="73" spans="6:6">
-      <c r="F73" s="43" t="s">
+      <c r="F73" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="74" spans="6:6">
-      <c r="F74" s="43" t="s">
+      <c r="F74" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="75" spans="6:6">
-      <c r="F75" s="43" t="s">
+      <c r="F75" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="76" spans="6:6">
-      <c r="F76" s="43" t="s">
+      <c r="F76" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="77" spans="6:6">
-      <c r="F77" s="43" t="s">
+      <c r="F77" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="78" spans="6:6">
-      <c r="F78" s="43" t="s">
+      <c r="F78" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="79" spans="6:6">
-      <c r="F79" s="43" t="s">
+      <c r="F79" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="80" spans="6:6">
-      <c r="F80" s="43" t="s">
+      <c r="F80" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="81" spans="6:6">
-      <c r="F81" s="43" t="s">
+      <c r="F81" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="82" spans="6:6">
-      <c r="F82" s="43" t="s">
+      <c r="F82" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="83" spans="6:6">
-      <c r="F83" s="43" t="s">
+      <c r="F83" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="84" spans="6:6">
-      <c r="F84" s="43" t="s">
+      <c r="F84" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="85" spans="6:6">
-      <c r="F85" s="43" t="s">
+      <c r="F85" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="86" spans="6:6">
-      <c r="F86" s="43" t="s">
+      <c r="F86" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="87" spans="6:6">
-      <c r="F87" s="43" t="s">
+      <c r="F87" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="88" spans="6:6">
-      <c r="F88" s="43" t="s">
+      <c r="F88" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="89" spans="6:6">
-      <c r="F89" s="43" t="s">
+      <c r="F89" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="90" spans="6:6">
-      <c r="F90" s="43" t="s">
+      <c r="F90" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="91" spans="6:6">
-      <c r="F91" s="43" t="s">
+      <c r="F91" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="92" spans="6:6">
-      <c r="F92" s="43" t="s">
+      <c r="F92" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="93" spans="6:6">
-      <c r="F93" s="43" t="s">
+      <c r="F93" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="94" spans="6:6">
-      <c r="F94" s="43" t="s">
+      <c r="F94" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="95" spans="6:6">
-      <c r="F95" s="43" t="s">
+      <c r="F95" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="96" spans="6:6">
-      <c r="F96" s="43" t="s">
+      <c r="F96" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="97" spans="6:6">
-      <c r="F97" s="43" t="s">
+      <c r="F97" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="98" spans="6:6">
-      <c r="F98" s="43" t="s">
+      <c r="F98" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="99" spans="6:6">
-      <c r="F99" s="43" t="s">
+      <c r="F99" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="100" spans="6:6">
-      <c r="F100" s="43" t="s">
+      <c r="F100" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="101" spans="6:6">
-      <c r="F101" s="43" t="s">
+      <c r="F101" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="102" spans="6:6">
-      <c r="F102" s="43" t="s">
+      <c r="F102" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="103" spans="6:6">
-      <c r="F103" s="43" t="s">
+      <c r="F103" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="104" spans="6:6">
-      <c r="F104" s="43" t="s">
+      <c r="F104" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="105" spans="6:6">
-      <c r="F105" s="43" t="s">
+      <c r="F105" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="106" spans="6:6">
-      <c r="F106" s="43" t="s">
+      <c r="F106" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="107" spans="6:6">
-      <c r="F107" s="43" t="s">
+      <c r="F107" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="108" spans="6:6">
-      <c r="F108" s="43" t="s">
+      <c r="F108" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="109" spans="6:6">
-      <c r="F109" s="43" t="s">
+      <c r="F109" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="110" spans="6:6">
-      <c r="F110" s="43" t="s">
+      <c r="F110" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="111" spans="6:6">
-      <c r="F111" s="43" t="s">
+      <c r="F111" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="112" spans="6:6">
-      <c r="F112" s="43" t="s">
+      <c r="F112" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="113" spans="6:6">
-      <c r="F113" s="43" t="s">
+      <c r="F113" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="114" spans="6:6">
-      <c r="F114" s="43" t="s">
+      <c r="F114" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="115" spans="6:6">
-      <c r="F115" s="43" t="s">
+      <c r="F115" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="116" spans="6:6">
-      <c r="F116" s="43" t="s">
+      <c r="F116" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="117" spans="6:6">
-      <c r="F117" s="43" t="s">
+      <c r="F117" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="118" spans="6:6">
-      <c r="F118" s="43" t="s">
+      <c r="F118" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="119" spans="6:6">
-      <c r="F119" s="43" t="s">
+      <c r="F119" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="120" spans="6:6">
-      <c r="F120" s="43" t="s">
+      <c r="F120" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="121" spans="6:6">
-      <c r="F121" s="43" t="s">
+      <c r="F121" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="122" spans="6:6">
-      <c r="F122" s="43" t="s">
+      <c r="F122" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="123" spans="6:6">
-      <c r="F123" s="43" t="s">
+      <c r="F123" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="124" spans="6:6">
-      <c r="F124" s="43" t="s">
+      <c r="F124" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="125" spans="6:6">
-      <c r="F125" s="43" t="s">
+      <c r="F125" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="126" spans="6:6">
-      <c r="F126" s="43" t="s">
+      <c r="F126" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="127" spans="6:6">
-      <c r="F127" s="43" t="s">
+      <c r="F127" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="128" spans="6:6">
-      <c r="F128" s="43" t="s">
+      <c r="F128" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5752,14 +5858,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="58" t="s">
         <v>59</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5770,7 +5876,7 @@
         <v>52</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5781,18 +5887,18 @@
         <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="36" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5803,7 +5909,7 @@
         <v>53</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5811,7 +5917,7 @@
         <v>54</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5835,7 +5941,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="8" t="s">
         <v>70</v>
       </c>
     </row>

--- a/기획+QA.xlsx
+++ b/기획+QA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\little Hong\source\repos\PrimerPasoRPG\PrimerPasoRPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6091B0C7-B9C2-40AD-9E35-66A4FFF432F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC632052-E6F3-4E46-BE5C-B69F6E05519B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="184">
   <si>
     <t>공격하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -740,6 +740,10 @@
   </si>
   <si>
     <t>완료 버전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1315,6 +1319,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1338,12 +1348,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2443,10 +2447,10 @@
       <c r="B1" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="71"/>
+      <c r="D1" s="73"/>
       <c r="E1" s="11"/>
       <c r="F1" s="21"/>
       <c r="G1" s="38"/>
@@ -2467,11 +2471,11 @@
       <c r="B3" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="76"/>
       <c r="F3" s="27" t="s">
         <v>41</v>
       </c>
@@ -4426,7 +4430,7 @@
   <dimension ref="A1:M128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -4447,19 +4451,19 @@
       <c r="B1" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="76"/>
+      <c r="D1" s="78"/>
       <c r="E1" s="42"/>
       <c r="F1" s="37" t="s">
         <v>87</v>
       </c>
       <c r="G1" s="67" t="s">
-        <v>181</v>
-      </c>
-      <c r="H1" s="80"/>
-      <c r="I1" s="79"/>
+        <v>183</v>
+      </c>
+      <c r="H1" s="72"/>
+      <c r="I1" s="71"/>
     </row>
     <row r="2" spans="1:13" ht="19.8" customHeight="1">
       <c r="A2" s="38"/>
@@ -4480,10 +4484,10 @@
       <c r="C3" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="78"/>
+      <c r="E3" s="80"/>
       <c r="F3" s="49" t="s">
         <v>41</v>
       </c>
@@ -4541,7 +4545,9 @@
       <c r="H5" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="I5" s="39"/>
+      <c r="I5" s="67" t="s">
+        <v>183</v>
+      </c>
       <c r="M5" s="51"/>
     </row>
     <row r="6" spans="1:13">

--- a/기획+QA.xlsx
+++ b/기획+QA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\little Hong\source\repos\PrimerPasoRPG\PrimerPasoRPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC632052-E6F3-4E46-BE5C-B69F6E05519B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0387E0-B6C1-480A-9DB8-2241023310C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="185">
   <si>
     <t>공격하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -744,6 +744,10 @@
   </si>
   <si>
     <t>Version.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4430,7 +4434,7 @@
   <dimension ref="A1:M128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -4460,7 +4464,7 @@
         <v>87</v>
       </c>
       <c r="G1" s="67" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H1" s="72"/>
       <c r="I1" s="71"/>
@@ -4537,7 +4541,7 @@
         <v>93</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>46</v>
+        <v>180</v>
       </c>
       <c r="G5" s="70" t="s">
         <v>114</v>
@@ -4562,7 +4566,7 @@
       </c>
       <c r="E6" s="30"/>
       <c r="F6" s="39" t="s">
-        <v>46</v>
+        <v>180</v>
       </c>
       <c r="G6" s="70" t="s">
         <v>114</v>
@@ -4570,7 +4574,9 @@
       <c r="H6" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="39"/>
+      <c r="I6" s="67" t="s">
+        <v>184</v>
+      </c>
       <c r="M6" s="51"/>
     </row>
     <row r="7" spans="1:13">

--- a/기획+QA.xlsx
+++ b/기획+QA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\little Hong\source\repos\PrimerPasoRPG\PrimerPasoRPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0387E0-B6C1-480A-9DB8-2241023310C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79367DDD-D415-497D-BB86-33121C64EDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="191">
   <si>
     <t>공격하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -748,6 +748,29 @@
   </si>
   <si>
     <t>Version.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 수정 메뉴에서 아이템 종류 변경 시 아이템 정보도 같이 수정할 수 있게 개선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재는 아이템 종류 string과 상점 구분만 바뀜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점</t>
+  </si>
+  <si>
+    <t>상점에서 아이템 목록 번호가 1,2,3 순서로 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재는 뒤로가기 제외 모두 1로 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1149,7 +1172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1353,6 +1376,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2431,7 +2455,7 @@
   <dimension ref="A1:M120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B4" sqref="B4:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -3239,7 +3263,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{03C05A13-C045-467E-8AA6-DD0D7157F019}">
           <x14:formula1>
             <xm:f>'기타)드롭다운목록'!$A$2:$A$5</xm:f>
@@ -3248,7 +3272,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{188B0A72-FB5C-4A62-B38F-0CA25B6C4E70}">
           <x14:formula1>
-            <xm:f>'기타)드롭다운목록'!$B$2:$B$11</xm:f>
+            <xm:f>'기타)드롭다운목록'!$B$2:$B$12</xm:f>
           </x14:formula1>
           <xm:sqref>B4:B1048576</xm:sqref>
         </x14:dataValidation>
@@ -3263,7 +3287,7 @@
   <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B2" sqref="B2:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -4413,7 +4437,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4768E1A5-0466-4834-9629-4C5FE4F9564C}">
           <x14:formula1>
-            <xm:f>'기타)드롭다운목록'!$B$2:$B$11</xm:f>
+            <xm:f>'기타)드롭다운목록'!$B$2:$B$12</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
@@ -4434,7 +4458,7 @@
   <dimension ref="A1:M128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -4464,7 +4488,7 @@
         <v>87</v>
       </c>
       <c r="G1" s="67" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H1" s="72"/>
       <c r="I1" s="71"/>
@@ -4590,7 +4614,7 @@
         <v>95</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>46</v>
+        <v>180</v>
       </c>
       <c r="G7" s="70" t="s">
         <v>114</v>
@@ -4598,7 +4622,9 @@
       <c r="H7" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="I7" s="39"/>
+      <c r="I7" s="67" t="s">
+        <v>185</v>
+      </c>
       <c r="M7" s="51"/>
     </row>
     <row r="8" spans="1:13">
@@ -4613,7 +4639,7 @@
       </c>
       <c r="E8" s="30"/>
       <c r="F8" s="39" t="s">
-        <v>46</v>
+        <v>180</v>
       </c>
       <c r="G8" s="70" t="s">
         <v>114</v>
@@ -4621,7 +4647,9 @@
       <c r="H8" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="I8" s="39"/>
+      <c r="I8" s="67" t="s">
+        <v>185</v>
+      </c>
       <c r="M8" s="51"/>
     </row>
     <row r="9" spans="1:13">
@@ -5389,82 +5417,112 @@
       </c>
       <c r="I48" s="39"/>
     </row>
-    <row r="49" spans="6:6">
+    <row r="49" spans="2:8" ht="34.799999999999997">
+      <c r="B49" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" s="52" t="s">
+        <v>186</v>
+      </c>
       <c r="F49" s="39" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" spans="6:6">
+      <c r="G49" s="70" t="s">
+        <v>187</v>
+      </c>
+      <c r="H49" s="39" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50" s="52" t="s">
+        <v>189</v>
+      </c>
       <c r="F50" s="39" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="51" spans="6:6">
+      <c r="G50" s="70" t="s">
+        <v>190</v>
+      </c>
+      <c r="H50" s="67" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
       <c r="F51" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="6:6">
+    <row r="52" spans="2:8">
       <c r="F52" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="6:6">
+    <row r="53" spans="2:8">
       <c r="F53" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="6:6">
+    <row r="54" spans="2:8">
       <c r="F54" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="6:6">
+    <row r="55" spans="2:8">
       <c r="F55" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="6:6">
+    <row r="56" spans="2:8">
       <c r="F56" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="6:6">
+    <row r="57" spans="2:8">
       <c r="F57" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="6:6">
+    <row r="58" spans="2:8">
       <c r="F58" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="6:6">
+    <row r="59" spans="2:8">
       <c r="F59" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="6:6">
+    <row r="60" spans="2:8">
       <c r="F60" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="6:6">
+    <row r="61" spans="2:8">
       <c r="F61" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="6:6">
+    <row r="62" spans="2:8">
       <c r="F62" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="6:6">
+    <row r="63" spans="2:8">
       <c r="F63" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="6:6">
+    <row r="64" spans="2:8">
       <c r="F64" s="39" t="s">
         <v>46</v>
       </c>
@@ -5834,7 +5892,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{768703D5-6A1C-4A48-AC07-15B73D7E8137}">
           <x14:formula1>
-            <xm:f>'기타)드롭다운목록'!$B$2:$B$11</xm:f>
+            <xm:f>'기타)드롭다운목록'!$B$2:$B$12</xm:f>
           </x14:formula1>
           <xm:sqref>B4:B1048576</xm:sqref>
         </x14:dataValidation>
@@ -5858,10 +5916,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E0D356-90A0-4A19-9533-9F61A2D90EC2}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -5955,6 +6013,11 @@
     <row r="11" spans="1:3">
       <c r="B11" s="8" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="81" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/기획+QA.xlsx
+++ b/기획+QA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\little Hong\source\repos\PrimerPasoRPG\PrimerPasoRPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79367DDD-D415-497D-BB86-33121C64EDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFA1E4F-E5B2-4D08-AE1E-17B8E0E70818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="192">
   <si>
     <t>공격하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -598,10 +598,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>현재는 이름 입력 후 직업 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>맵(전투)</t>
   </si>
   <si>
@@ -771,6 +767,14 @@
   </si>
   <si>
     <t>현재는 뒤로가기 제외 모두 1로 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재는 이름 입력 후 화면 초기화 -&gt;직업 선택</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1172,7 +1176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1376,7 +1380,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2055,7 +2058,7 @@
         <v>73</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D2" s="64"/>
     </row>
@@ -2067,7 +2070,7 @@
         <v>77</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D3" s="64"/>
     </row>
@@ -2079,7 +2082,7 @@
         <v>78</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D4" s="64"/>
     </row>
@@ -2123,28 +2126,28 @@
         <v>11</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>153</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>154</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="J1" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="K1" s="59" t="s">
+        <v>176</v>
+      </c>
+      <c r="L1" s="59" t="s">
         <v>177</v>
-      </c>
-      <c r="L1" s="59" t="s">
-        <v>178</v>
       </c>
       <c r="M1" s="61" t="s">
         <v>13</v>
@@ -2158,7 +2161,7 @@
         <v>74</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C2" s="15">
         <v>10</v>
@@ -2204,7 +2207,7 @@
         <v>75</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" s="15">
         <v>50</v>
@@ -2250,7 +2253,7 @@
         <v>76</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="15">
         <v>150</v>
@@ -4455,10 +4458,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B03DAE-7C2C-40BD-A7FB-06E7A03B2CEF}">
-  <dimension ref="A1:M128"/>
+  <dimension ref="A1:M127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -4488,7 +4491,7 @@
         <v>87</v>
       </c>
       <c r="G1" s="67" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="H1" s="72"/>
       <c r="I1" s="71"/>
@@ -4526,7 +4529,7 @@
         <v>113</v>
       </c>
       <c r="I3" s="37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -4541,7 +4544,7 @@
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G4" s="70" t="s">
         <v>114</v>
@@ -4550,7 +4553,7 @@
         <v>79</v>
       </c>
       <c r="I4" s="67" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M4" s="51"/>
     </row>
@@ -4565,7 +4568,7 @@
         <v>93</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G5" s="70" t="s">
         <v>114</v>
@@ -4574,7 +4577,7 @@
         <v>79</v>
       </c>
       <c r="I5" s="67" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M5" s="51"/>
     </row>
@@ -4590,7 +4593,7 @@
       </c>
       <c r="E6" s="30"/>
       <c r="F6" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G6" s="70" t="s">
         <v>114</v>
@@ -4599,7 +4602,7 @@
         <v>79</v>
       </c>
       <c r="I6" s="67" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M6" s="51"/>
     </row>
@@ -4614,7 +4617,7 @@
         <v>95</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G7" s="70" t="s">
         <v>114</v>
@@ -4623,7 +4626,7 @@
         <v>79</v>
       </c>
       <c r="I7" s="67" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M7" s="51"/>
     </row>
@@ -4639,7 +4642,7 @@
       </c>
       <c r="E8" s="30"/>
       <c r="F8" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G8" s="70" t="s">
         <v>114</v>
@@ -4648,7 +4651,7 @@
         <v>79</v>
       </c>
       <c r="I8" s="67" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M8" s="51"/>
     </row>
@@ -4660,10 +4663,10 @@
         <v>132</v>
       </c>
       <c r="D9" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" s="39" t="s">
         <v>179</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>180</v>
       </c>
       <c r="G9" s="70" t="s">
         <v>143</v>
@@ -4672,7 +4675,7 @@
         <v>79</v>
       </c>
       <c r="I9" s="67" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M9" s="51"/>
     </row>
@@ -4773,7 +4776,7 @@
         <v>112</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G15" s="70" t="s">
         <v>118</v>
@@ -4782,7 +4785,7 @@
         <v>79</v>
       </c>
       <c r="I15" s="67" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M15" s="51"/>
     </row>
@@ -5183,15 +5186,17 @@
         <v>145</v>
       </c>
       <c r="F36" s="39" t="s">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="G36" s="70" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="H36" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="I36" s="39"/>
+      <c r="I36" s="67" t="s">
+        <v>190</v>
+      </c>
       <c r="M36" s="53"/>
     </row>
     <row r="37" spans="2:13">
@@ -5202,7 +5207,7 @@
         <v>136</v>
       </c>
       <c r="D37" s="52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F37" s="39" t="s">
         <v>46</v>
@@ -5215,19 +5220,19 @@
     </row>
     <row r="38" spans="2:13">
       <c r="B38" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C38" s="39" t="s">
         <v>138</v>
       </c>
       <c r="D38" s="52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F38" s="39" t="s">
         <v>46</v>
       </c>
       <c r="G38" s="70" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H38" s="39" t="s">
         <v>79</v>
@@ -5237,13 +5242,13 @@
     </row>
     <row r="39" spans="2:13">
       <c r="B39" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C39" s="39" t="s">
         <v>138</v>
       </c>
       <c r="D39" s="52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F39" s="39" t="s">
         <v>46</v>
@@ -5256,16 +5261,16 @@
     </row>
     <row r="40" spans="2:13">
       <c r="B40" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C40" s="39" t="s">
         <v>140</v>
       </c>
       <c r="D40" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="E40" s="52" t="s">
         <v>158</v>
-      </c>
-      <c r="E40" s="52" t="s">
-        <v>159</v>
       </c>
       <c r="F40" s="39" t="s">
         <v>46</v>
@@ -5278,7 +5283,7 @@
     </row>
     <row r="41" spans="2:13">
       <c r="E41" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F41" s="39" t="s">
         <v>46</v>
@@ -5296,16 +5301,16 @@
         <v>140</v>
       </c>
       <c r="D42" s="52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E42" s="52" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F42" s="39" t="s">
         <v>47</v>
       </c>
       <c r="G42" s="70" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H42" s="39" t="s">
         <v>79</v>
@@ -5314,13 +5319,13 @@
     </row>
     <row r="43" spans="2:13">
       <c r="E43" s="52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F43" s="39" t="s">
         <v>46</v>
       </c>
       <c r="G43" s="70" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H43" s="39" t="s">
         <v>79</v>
@@ -5335,7 +5340,7 @@
         <v>140</v>
       </c>
       <c r="D44" s="52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F44" s="39" t="s">
         <v>46</v>
@@ -5353,13 +5358,13 @@
         <v>140</v>
       </c>
       <c r="D45" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="F45" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="G45" s="70" t="s">
         <v>170</v>
-      </c>
-      <c r="F45" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="G45" s="70" t="s">
-        <v>171</v>
       </c>
       <c r="H45" s="39" t="s">
         <v>79</v>
@@ -5367,29 +5372,43 @@
       <c r="I45" s="39"/>
     </row>
     <row r="46" spans="2:13">
+      <c r="B46" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" s="52" t="s">
+        <v>171</v>
+      </c>
       <c r="F46" s="39" t="s">
-        <v>46</v>
+        <v>179</v>
+      </c>
+      <c r="G46" s="70" t="s">
+        <v>172</v>
       </c>
       <c r="H46" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="I46" s="39"/>
-    </row>
-    <row r="47" spans="2:13">
+      <c r="I46" s="67" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" ht="34.799999999999997">
       <c r="B47" s="39" t="s">
-        <v>55</v>
+        <v>173</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D47" s="52" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F47" s="39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G47" s="70" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H47" s="39" t="s">
         <v>79</v>
@@ -5398,131 +5417,118 @@
     </row>
     <row r="48" spans="2:13" ht="34.799999999999997">
       <c r="B48" s="39" t="s">
-        <v>174</v>
+        <v>84</v>
       </c>
       <c r="C48" s="39" t="s">
         <v>138</v>
       </c>
       <c r="D48" s="52" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F48" s="39" t="s">
         <v>46</v>
       </c>
       <c r="G48" s="70" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H48" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I48" s="39"/>
-    </row>
-    <row r="49" spans="2:8" ht="34.799999999999997">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
       <c r="B49" s="39" t="s">
-        <v>84</v>
+        <v>187</v>
       </c>
       <c r="C49" s="39" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D49" s="52" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F49" s="39" t="s">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="G49" s="70" t="s">
-        <v>187</v>
-      </c>
-      <c r="H49" s="39" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8">
-      <c r="B50" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="C50" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="D50" s="52" t="s">
         <v>189</v>
       </c>
+      <c r="H49" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="I49" s="67" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
       <c r="F50" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="G50" s="70" t="s">
-        <v>190</v>
-      </c>
-      <c r="H50" s="67" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8">
+    </row>
+    <row r="51" spans="2:9">
       <c r="F51" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="2:8">
+    <row r="52" spans="2:9">
       <c r="F52" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="2:8">
+    <row r="53" spans="2:9">
       <c r="F53" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="2:8">
+    <row r="54" spans="2:9">
       <c r="F54" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="2:8">
+    <row r="55" spans="2:9">
       <c r="F55" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="2:8">
+    <row r="56" spans="2:9">
       <c r="F56" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="2:8">
+    <row r="57" spans="2:9">
       <c r="F57" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="2:8">
+    <row r="58" spans="2:9">
       <c r="F58" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="2:8">
+    <row r="59" spans="2:9">
       <c r="F59" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="2:8">
+    <row r="60" spans="2:9">
       <c r="F60" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="2:8">
+    <row r="61" spans="2:9">
       <c r="F61" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="2:8">
+    <row r="62" spans="2:9">
       <c r="F62" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="2:8">
+    <row r="63" spans="2:9">
       <c r="F63" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="2:8">
+    <row r="64" spans="2:9">
       <c r="F64" s="39" t="s">
         <v>46</v>
       </c>
@@ -5839,11 +5845,6 @@
     </row>
     <row r="127" spans="6:6">
       <c r="F127" s="39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="128" spans="6:6">
-      <c r="F128" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5867,7 +5868,7 @@
       <formula>NOT(ISERROR(SEARCH("Pass",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C128">
+  <conditionalFormatting sqref="C4:C127">
     <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",C4)))</formula>
     </cfRule>
@@ -5965,7 +5966,7 @@
         <v>46</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>137</v>
@@ -6016,7 +6017,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="8" t="s">
         <v>65</v>
       </c>
     </row>
